--- a/data/trans_orig/P6512-Provincia-trans_orig.xlsx
+++ b/data/trans_orig/P6512-Provincia-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{3581EE21-03FE-4609-98B2-F0A9E57B3A41}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{15EEEE01-F163-439A-B4CC-3DE7EBAB4982}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{8073C542-CD09-43B9-9779-0391E046B980}"/>
+    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{D255B229-2000-48AF-8266-5BB79CB2B7B5}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="479" uniqueCount="332">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="479" uniqueCount="330">
   <si>
     <t>Población según el uso de ordenadores durante las tareas de su trabajo en 2007 (Tasa respuesta: 43,1%)</t>
   </si>
@@ -74,961 +74,955 @@
     <t>44,84%</t>
   </si>
   <si>
-    <t>37,25%</t>
-  </si>
-  <si>
-    <t>52,5%</t>
+    <t>36,3%</t>
+  </si>
+  <si>
+    <t>52,59%</t>
   </si>
   <si>
     <t>34,94%</t>
   </si>
   <si>
+    <t>25,52%</t>
+  </si>
+  <si>
+    <t>45,31%</t>
+  </si>
+  <si>
+    <t>40,84%</t>
+  </si>
+  <si>
+    <t>34,77%</t>
+  </si>
+  <si>
+    <t>46,89%</t>
+  </si>
+  <si>
+    <t>Algunas veces</t>
+  </si>
+  <si>
+    <t>16,1%</t>
+  </si>
+  <si>
+    <t>10,62%</t>
+  </si>
+  <si>
+    <t>22,84%</t>
+  </si>
+  <si>
+    <t>18,37%</t>
+  </si>
+  <si>
+    <t>11,66%</t>
+  </si>
+  <si>
+    <t>28,03%</t>
+  </si>
+  <si>
+    <t>17,01%</t>
+  </si>
+  <si>
+    <t>12,34%</t>
+  </si>
+  <si>
+    <t>21,86%</t>
+  </si>
+  <si>
+    <t>Muchas veces</t>
+  </si>
+  <si>
+    <t>21,51%</t>
+  </si>
+  <si>
+    <t>15,07%</t>
+  </si>
+  <si>
+    <t>28,85%</t>
+  </si>
+  <si>
+    <t>18,8%</t>
+  </si>
+  <si>
+    <t>12,53%</t>
+  </si>
+  <si>
+    <t>28,75%</t>
+  </si>
+  <si>
+    <t>20,41%</t>
+  </si>
+  <si>
+    <t>15,74%</t>
+  </si>
+  <si>
+    <t>25,77%</t>
+  </si>
+  <si>
+    <t>Siempre</t>
+  </si>
+  <si>
+    <t>17,55%</t>
+  </si>
+  <si>
+    <t>12,57%</t>
+  </si>
+  <si>
+    <t>25,47%</t>
+  </si>
+  <si>
+    <t>27,9%</t>
+  </si>
+  <si>
+    <t>19,69%</t>
+  </si>
+  <si>
+    <t>38,2%</t>
+  </si>
+  <si>
+    <t>21,73%</t>
+  </si>
+  <si>
+    <t>17,31%</t>
+  </si>
+  <si>
+    <t>27,74%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>Cadiz</t>
+  </si>
+  <si>
+    <t>51,37%</t>
+  </si>
+  <si>
+    <t>45,6%</t>
+  </si>
+  <si>
+    <t>58,0%</t>
+  </si>
+  <si>
+    <t>44,72%</t>
+  </si>
+  <si>
+    <t>35,45%</t>
+  </si>
+  <si>
+    <t>52,45%</t>
+  </si>
+  <si>
+    <t>49,2%</t>
+  </si>
+  <si>
+    <t>43,82%</t>
+  </si>
+  <si>
+    <t>54,65%</t>
+  </si>
+  <si>
+    <t>15,55%</t>
+  </si>
+  <si>
+    <t>11,24%</t>
+  </si>
+  <si>
+    <t>20,4%</t>
+  </si>
+  <si>
+    <t>16,69%</t>
+  </si>
+  <si>
+    <t>10,98%</t>
+  </si>
+  <si>
+    <t>24,95%</t>
+  </si>
+  <si>
+    <t>15,92%</t>
+  </si>
+  <si>
+    <t>12,2%</t>
+  </si>
+  <si>
+    <t>20,25%</t>
+  </si>
+  <si>
+    <t>15,72%</t>
+  </si>
+  <si>
+    <t>11,48%</t>
+  </si>
+  <si>
+    <t>20,54%</t>
+  </si>
+  <si>
+    <t>16,88%</t>
+  </si>
+  <si>
+    <t>11,12%</t>
+  </si>
+  <si>
+    <t>24,23%</t>
+  </si>
+  <si>
+    <t>12,73%</t>
+  </si>
+  <si>
+    <t>20,39%</t>
+  </si>
+  <si>
+    <t>17,36%</t>
+  </si>
+  <si>
+    <t>12,46%</t>
+  </si>
+  <si>
+    <t>22,52%</t>
+  </si>
+  <si>
+    <t>21,72%</t>
+  </si>
+  <si>
+    <t>15,14%</t>
+  </si>
+  <si>
+    <t>29,36%</t>
+  </si>
+  <si>
+    <t>18,78%</t>
+  </si>
+  <si>
+    <t>15,1%</t>
+  </si>
+  <si>
+    <t>23,13%</t>
+  </si>
+  <si>
+    <t>Cordoba</t>
+  </si>
+  <si>
+    <t>56,12%</t>
+  </si>
+  <si>
+    <t>47,97%</t>
+  </si>
+  <si>
+    <t>64,2%</t>
+  </si>
+  <si>
+    <t>55,63%</t>
+  </si>
+  <si>
+    <t>45,64%</t>
+  </si>
+  <si>
+    <t>65,32%</t>
+  </si>
+  <si>
+    <t>55,95%</t>
+  </si>
+  <si>
+    <t>49,91%</t>
+  </si>
+  <si>
+    <t>62,01%</t>
+  </si>
+  <si>
+    <t>16,79%</t>
+  </si>
+  <si>
+    <t>11,84%</t>
+  </si>
+  <si>
+    <t>23,7%</t>
+  </si>
+  <si>
+    <t>15,7%</t>
+  </si>
+  <si>
+    <t>9,34%</t>
+  </si>
+  <si>
+    <t>24,3%</t>
+  </si>
+  <si>
+    <t>16,41%</t>
+  </si>
+  <si>
+    <t>12,29%</t>
+  </si>
+  <si>
+    <t>21,27%</t>
+  </si>
+  <si>
+    <t>14,95%</t>
+  </si>
+  <si>
+    <t>10,01%</t>
+  </si>
+  <si>
+    <t>21,12%</t>
+  </si>
+  <si>
+    <t>16,09%</t>
+  </si>
+  <si>
+    <t>9,78%</t>
+  </si>
+  <si>
+    <t>25,1%</t>
+  </si>
+  <si>
+    <t>15,35%</t>
+  </si>
+  <si>
+    <t>11,44%</t>
+  </si>
+  <si>
+    <t>20,37%</t>
+  </si>
+  <si>
+    <t>12,13%</t>
+  </si>
+  <si>
+    <t>7,64%</t>
+  </si>
+  <si>
+    <t>17,84%</t>
+  </si>
+  <si>
+    <t>12,58%</t>
+  </si>
+  <si>
+    <t>6,36%</t>
+  </si>
+  <si>
+    <t>20,83%</t>
+  </si>
+  <si>
+    <t>8,66%</t>
+  </si>
+  <si>
+    <t>17,37%</t>
+  </si>
+  <si>
+    <t>Granada</t>
+  </si>
+  <si>
+    <t>48,65%</t>
+  </si>
+  <si>
+    <t>41,86%</t>
+  </si>
+  <si>
+    <t>55,01%</t>
+  </si>
+  <si>
+    <t>40,64%</t>
+  </si>
+  <si>
+    <t>32,97%</t>
+  </si>
+  <si>
+    <t>49,33%</t>
+  </si>
+  <si>
+    <t>45,62%</t>
+  </si>
+  <si>
+    <t>40,01%</t>
+  </si>
+  <si>
+    <t>51,07%</t>
+  </si>
+  <si>
+    <t>17,58%</t>
+  </si>
+  <si>
+    <t>12,89%</t>
+  </si>
+  <si>
+    <t>22,91%</t>
+  </si>
+  <si>
+    <t>16,55%</t>
+  </si>
+  <si>
+    <t>11,27%</t>
+  </si>
+  <si>
+    <t>24,26%</t>
+  </si>
+  <si>
+    <t>17,19%</t>
+  </si>
+  <si>
+    <t>13,39%</t>
+  </si>
+  <si>
+    <t>21,52%</t>
+  </si>
+  <si>
+    <t>14,0%</t>
+  </si>
+  <si>
+    <t>9,94%</t>
+  </si>
+  <si>
+    <t>19,73%</t>
+  </si>
+  <si>
+    <t>16,8%</t>
+  </si>
+  <si>
+    <t>10,66%</t>
+  </si>
+  <si>
+    <t>23,42%</t>
+  </si>
+  <si>
+    <t>15,06%</t>
+  </si>
+  <si>
+    <t>11,61%</t>
+  </si>
+  <si>
+    <t>19,24%</t>
+  </si>
+  <si>
+    <t>19,77%</t>
+  </si>
+  <si>
+    <t>14,78%</t>
+  </si>
+  <si>
     <t>25,78%</t>
   </si>
   <si>
-    <t>45,31%</t>
-  </si>
-  <si>
-    <t>40,84%</t>
-  </si>
-  <si>
-    <t>34,96%</t>
-  </si>
-  <si>
-    <t>47,39%</t>
-  </si>
-  <si>
-    <t>Algunas veces</t>
-  </si>
-  <si>
-    <t>16,1%</t>
-  </si>
-  <si>
-    <t>10,96%</t>
-  </si>
-  <si>
-    <t>22,71%</t>
-  </si>
-  <si>
-    <t>18,37%</t>
-  </si>
-  <si>
-    <t>11,6%</t>
-  </si>
-  <si>
-    <t>26,46%</t>
-  </si>
-  <si>
-    <t>17,01%</t>
-  </si>
-  <si>
-    <t>12,69%</t>
-  </si>
-  <si>
-    <t>22,28%</t>
-  </si>
-  <si>
-    <t>Muchas veces</t>
-  </si>
-  <si>
-    <t>21,51%</t>
-  </si>
-  <si>
-    <t>15,09%</t>
-  </si>
-  <si>
-    <t>28,32%</t>
-  </si>
-  <si>
-    <t>18,8%</t>
-  </si>
-  <si>
-    <t>11,76%</t>
-  </si>
-  <si>
-    <t>27,32%</t>
-  </si>
-  <si>
-    <t>20,41%</t>
-  </si>
-  <si>
-    <t>15,65%</t>
-  </si>
-  <si>
-    <t>25,39%</t>
-  </si>
-  <si>
-    <t>Siempre</t>
-  </si>
-  <si>
-    <t>17,55%</t>
-  </si>
-  <si>
-    <t>12,02%</t>
-  </si>
-  <si>
-    <t>24,15%</t>
-  </si>
-  <si>
-    <t>27,9%</t>
-  </si>
-  <si>
-    <t>20,13%</t>
-  </si>
-  <si>
-    <t>38,11%</t>
-  </si>
-  <si>
-    <t>21,73%</t>
-  </si>
-  <si>
-    <t>17,07%</t>
-  </si>
-  <si>
-    <t>27,11%</t>
-  </si>
-  <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>Cadiz</t>
-  </si>
-  <si>
-    <t>51,37%</t>
-  </si>
-  <si>
-    <t>45,35%</t>
-  </si>
-  <si>
-    <t>57,69%</t>
-  </si>
-  <si>
-    <t>44,72%</t>
-  </si>
-  <si>
-    <t>36,55%</t>
-  </si>
-  <si>
-    <t>54,31%</t>
-  </si>
-  <si>
-    <t>49,2%</t>
-  </si>
-  <si>
-    <t>44,17%</t>
-  </si>
-  <si>
-    <t>54,52%</t>
-  </si>
-  <si>
-    <t>15,55%</t>
-  </si>
-  <si>
-    <t>11,54%</t>
-  </si>
-  <si>
-    <t>20,87%</t>
-  </si>
-  <si>
-    <t>16,69%</t>
+    <t>26,01%</t>
+  </si>
+  <si>
+    <t>19,2%</t>
+  </si>
+  <si>
+    <t>34,26%</t>
+  </si>
+  <si>
+    <t>22,13%</t>
+  </si>
+  <si>
+    <t>18,15%</t>
+  </si>
+  <si>
+    <t>26,64%</t>
+  </si>
+  <si>
+    <t>Huelva</t>
+  </si>
+  <si>
+    <t>63,91%</t>
+  </si>
+  <si>
+    <t>54,41%</t>
+  </si>
+  <si>
+    <t>72,83%</t>
+  </si>
+  <si>
+    <t>61,97%</t>
+  </si>
+  <si>
+    <t>47,2%</t>
+  </si>
+  <si>
+    <t>74,09%</t>
+  </si>
+  <si>
+    <t>63,31%</t>
+  </si>
+  <si>
+    <t>55,15%</t>
+  </si>
+  <si>
+    <t>70,93%</t>
+  </si>
+  <si>
+    <t>8,65%</t>
+  </si>
+  <si>
+    <t>4,66%</t>
+  </si>
+  <si>
+    <t>15,41%</t>
+  </si>
+  <si>
+    <t>4,0%</t>
+  </si>
+  <si>
+    <t>0,0%</t>
+  </si>
+  <si>
+    <t>14,22%</t>
+  </si>
+  <si>
+    <t>7,2%</t>
+  </si>
+  <si>
+    <t>3,78%</t>
+  </si>
+  <si>
+    <t>11,94%</t>
+  </si>
+  <si>
+    <t>7,52%</t>
+  </si>
+  <si>
+    <t>3,06%</t>
+  </si>
+  <si>
+    <t>14,45%</t>
+  </si>
+  <si>
+    <t>14,07%</t>
+  </si>
+  <si>
+    <t>5,94%</t>
+  </si>
+  <si>
+    <t>27,03%</t>
+  </si>
+  <si>
+    <t>9,55%</t>
+  </si>
+  <si>
+    <t>5,72%</t>
+  </si>
+  <si>
+    <t>15,81%</t>
+  </si>
+  <si>
+    <t>19,93%</t>
+  </si>
+  <si>
+    <t>28,7%</t>
+  </si>
+  <si>
+    <t>19,96%</t>
+  </si>
+  <si>
+    <t>10,38%</t>
+  </si>
+  <si>
+    <t>32,85%</t>
+  </si>
+  <si>
+    <t>19,94%</t>
+  </si>
+  <si>
+    <t>14,3%</t>
+  </si>
+  <si>
+    <t>27,24%</t>
+  </si>
+  <si>
+    <t>Jaen</t>
+  </si>
+  <si>
+    <t>47,82%</t>
+  </si>
+  <si>
+    <t>39,01%</t>
+  </si>
+  <si>
+    <t>55,72%</t>
+  </si>
+  <si>
+    <t>25,45%</t>
+  </si>
+  <si>
+    <t>17,32%</t>
+  </si>
+  <si>
+    <t>35,77%</t>
+  </si>
+  <si>
+    <t>40,06%</t>
+  </si>
+  <si>
+    <t>33,84%</t>
+  </si>
+  <si>
+    <t>46,34%</t>
+  </si>
+  <si>
+    <t>21,44%</t>
+  </si>
+  <si>
+    <t>15,76%</t>
+  </si>
+  <si>
+    <t>23,72%</t>
+  </si>
+  <si>
+    <t>14,88%</t>
+  </si>
+  <si>
+    <t>35,03%</t>
+  </si>
+  <si>
+    <t>22,23%</t>
+  </si>
+  <si>
+    <t>17,25%</t>
+  </si>
+  <si>
+    <t>27,69%</t>
+  </si>
+  <si>
+    <t>14,24%</t>
+  </si>
+  <si>
+    <t>9,26%</t>
+  </si>
+  <si>
+    <t>20,32%</t>
+  </si>
+  <si>
+    <t>17,77%</t>
+  </si>
+  <si>
+    <t>10,04%</t>
+  </si>
+  <si>
+    <t>27,42%</t>
+  </si>
+  <si>
+    <t>15,46%</t>
+  </si>
+  <si>
+    <t>11,25%</t>
+  </si>
+  <si>
+    <t>20,92%</t>
+  </si>
+  <si>
+    <t>16,49%</t>
+  </si>
+  <si>
+    <t>11,32%</t>
+  </si>
+  <si>
+    <t>23,54%</t>
+  </si>
+  <si>
+    <t>33,07%</t>
+  </si>
+  <si>
+    <t>22,69%</t>
+  </si>
+  <si>
+    <t>44,49%</t>
+  </si>
+  <si>
+    <t>22,24%</t>
+  </si>
+  <si>
+    <t>17,35%</t>
+  </si>
+  <si>
+    <t>27,99%</t>
+  </si>
+  <si>
+    <t>Malaga</t>
+  </si>
+  <si>
+    <t>61,99%</t>
+  </si>
+  <si>
+    <t>56,83%</t>
+  </si>
+  <si>
+    <t>67,44%</t>
+  </si>
+  <si>
+    <t>49,78%</t>
+  </si>
+  <si>
+    <t>41,99%</t>
+  </si>
+  <si>
+    <t>57,0%</t>
+  </si>
+  <si>
+    <t>57,73%</t>
+  </si>
+  <si>
+    <t>53,41%</t>
+  </si>
+  <si>
+    <t>62,02%</t>
+  </si>
+  <si>
+    <t>11,4%</t>
+  </si>
+  <si>
+    <t>8,13%</t>
+  </si>
+  <si>
+    <t>17,3%</t>
+  </si>
+  <si>
+    <t>12,09%</t>
+  </si>
+  <si>
+    <t>24,11%</t>
+  </si>
+  <si>
+    <t>13,46%</t>
+  </si>
+  <si>
+    <t>10,59%</t>
+  </si>
+  <si>
+    <t>16,98%</t>
+  </si>
+  <si>
+    <t>10,07%</t>
+  </si>
+  <si>
+    <t>7,27%</t>
+  </si>
+  <si>
+    <t>13,62%</t>
+  </si>
+  <si>
+    <t>14,1%</t>
+  </si>
+  <si>
+    <t>9,27%</t>
+  </si>
+  <si>
+    <t>19,99%</t>
+  </si>
+  <si>
+    <t>8,87%</t>
+  </si>
+  <si>
+    <t>14,73%</t>
+  </si>
+  <si>
+    <t>16,53%</t>
+  </si>
+  <si>
+    <t>12,71%</t>
+  </si>
+  <si>
+    <t>20,85%</t>
+  </si>
+  <si>
+    <t>18,82%</t>
+  </si>
+  <si>
+    <t>13,29%</t>
+  </si>
+  <si>
+    <t>17,33%</t>
+  </si>
+  <si>
+    <t>14,28%</t>
+  </si>
+  <si>
+    <t>20,81%</t>
+  </si>
+  <si>
+    <t>Sevilla</t>
+  </si>
+  <si>
+    <t>65,85%</t>
+  </si>
+  <si>
+    <t>61,19%</t>
+  </si>
+  <si>
+    <t>69,97%</t>
+  </si>
+  <si>
+    <t>55,89%</t>
+  </si>
+  <si>
+    <t>48,88%</t>
+  </si>
+  <si>
+    <t>62,05%</t>
+  </si>
+  <si>
+    <t>62,47%</t>
+  </si>
+  <si>
+    <t>58,77%</t>
+  </si>
+  <si>
+    <t>66,12%</t>
+  </si>
+  <si>
+    <t>8,32%</t>
+  </si>
+  <si>
+    <t>6,02%</t>
   </si>
   <si>
     <t>11,0%</t>
   </si>
   <si>
-    <t>23,95%</t>
-  </si>
-  <si>
-    <t>15,92%</t>
-  </si>
-  <si>
-    <t>12,3%</t>
-  </si>
-  <si>
-    <t>19,74%</t>
-  </si>
-  <si>
-    <t>15,72%</t>
-  </si>
-  <si>
-    <t>11,58%</t>
-  </si>
-  <si>
-    <t>20,71%</t>
-  </si>
-  <si>
-    <t>16,88%</t>
-  </si>
-  <si>
-    <t>11,2%</t>
-  </si>
-  <si>
-    <t>24,02%</t>
-  </si>
-  <si>
-    <t>12,63%</t>
-  </si>
-  <si>
-    <t>17,36%</t>
-  </si>
-  <si>
-    <t>12,85%</t>
-  </si>
-  <si>
-    <t>22,65%</t>
-  </si>
-  <si>
-    <t>21,72%</t>
-  </si>
-  <si>
-    <t>15,2%</t>
-  </si>
-  <si>
-    <t>28,98%</t>
-  </si>
-  <si>
-    <t>18,78%</t>
-  </si>
-  <si>
-    <t>14,97%</t>
-  </si>
-  <si>
-    <t>22,78%</t>
-  </si>
-  <si>
-    <t>Cordoba</t>
-  </si>
-  <si>
-    <t>56,12%</t>
-  </si>
-  <si>
-    <t>49,08%</t>
-  </si>
-  <si>
-    <t>64,04%</t>
-  </si>
-  <si>
-    <t>55,63%</t>
-  </si>
-  <si>
-    <t>44,8%</t>
-  </si>
-  <si>
-    <t>64,64%</t>
-  </si>
-  <si>
-    <t>55,95%</t>
-  </si>
-  <si>
-    <t>49,78%</t>
-  </si>
-  <si>
-    <t>62,4%</t>
-  </si>
-  <si>
-    <t>16,79%</t>
-  </si>
-  <si>
-    <t>11,49%</t>
-  </si>
-  <si>
-    <t>23,45%</t>
-  </si>
-  <si>
-    <t>15,7%</t>
-  </si>
-  <si>
-    <t>9,51%</t>
-  </si>
-  <si>
-    <t>23,31%</t>
-  </si>
-  <si>
-    <t>16,41%</t>
-  </si>
-  <si>
-    <t>21,4%</t>
-  </si>
-  <si>
-    <t>14,95%</t>
-  </si>
-  <si>
-    <t>10,29%</t>
-  </si>
-  <si>
-    <t>21,11%</t>
-  </si>
-  <si>
-    <t>16,09%</t>
-  </si>
-  <si>
-    <t>9,53%</t>
-  </si>
-  <si>
-    <t>24,72%</t>
-  </si>
-  <si>
-    <t>15,35%</t>
-  </si>
-  <si>
-    <t>20,34%</t>
-  </si>
-  <si>
-    <t>12,13%</t>
+    <t>11,3%</t>
   </si>
   <si>
     <t>7,68%</t>
   </si>
   <si>
-    <t>17,88%</t>
-  </si>
-  <si>
-    <t>12,58%</t>
-  </si>
-  <si>
-    <t>7,15%</t>
-  </si>
-  <si>
-    <t>20,57%</t>
-  </si>
-  <si>
-    <t>12,29%</t>
-  </si>
-  <si>
-    <t>8,68%</t>
+    <t>15,8%</t>
+  </si>
+  <si>
+    <t>9,33%</t>
+  </si>
+  <si>
+    <t>7,19%</t>
+  </si>
+  <si>
+    <t>11,52%</t>
+  </si>
+  <si>
+    <t>8,49%</t>
+  </si>
+  <si>
+    <t>6,3%</t>
+  </si>
+  <si>
+    <t>11,36%</t>
+  </si>
+  <si>
+    <t>11,81%</t>
+  </si>
+  <si>
+    <t>8,05%</t>
+  </si>
+  <si>
+    <t>16,62%</t>
+  </si>
+  <si>
+    <t>9,62%</t>
+  </si>
+  <si>
+    <t>7,75%</t>
+  </si>
+  <si>
+    <t>12,27%</t>
+  </si>
+  <si>
+    <t>13,91%</t>
+  </si>
+  <si>
+    <t>21,29%</t>
+  </si>
+  <si>
+    <t>21,0%</t>
+  </si>
+  <si>
+    <t>16,37%</t>
+  </si>
+  <si>
+    <t>26,76%</t>
+  </si>
+  <si>
+    <t>18,58%</t>
+  </si>
+  <si>
+    <t>15,56%</t>
+  </si>
+  <si>
+    <t>21,58%</t>
+  </si>
+  <si>
+    <t>56,78%</t>
+  </si>
+  <si>
+    <t>54,45%</t>
+  </si>
+  <si>
+    <t>59,02%</t>
+  </si>
+  <si>
+    <t>46,9%</t>
+  </si>
+  <si>
+    <t>49,85%</t>
+  </si>
+  <si>
+    <t>53,32%</t>
+  </si>
+  <si>
+    <t>51,42%</t>
+  </si>
+  <si>
+    <t>13,53%</t>
+  </si>
+  <si>
+    <t>11,87%</t>
+  </si>
+  <si>
+    <t>15,04%</t>
+  </si>
+  <si>
+    <t>13,42%</t>
+  </si>
+  <si>
+    <t>17,94%</t>
+  </si>
+  <si>
+    <t>12,93%</t>
+  </si>
+  <si>
+    <t>15,54%</t>
+  </si>
+  <si>
+    <t>12,59%</t>
+  </si>
+  <si>
+    <t>11,14%</t>
+  </si>
+  <si>
+    <t>14,4%</t>
+  </si>
+  <si>
+    <t>15,27%</t>
+  </si>
+  <si>
+    <t>13,18%</t>
   </si>
   <si>
     <t>17,1%</t>
   </si>
   <si>
-    <t>Granada</t>
-  </si>
-  <si>
-    <t>48,65%</t>
-  </si>
-  <si>
-    <t>41,72%</t>
-  </si>
-  <si>
-    <t>55,72%</t>
-  </si>
-  <si>
-    <t>40,64%</t>
-  </si>
-  <si>
-    <t>32,67%</t>
-  </si>
-  <si>
-    <t>49,03%</t>
-  </si>
-  <si>
-    <t>45,62%</t>
-  </si>
-  <si>
-    <t>40,46%</t>
-  </si>
-  <si>
-    <t>51,21%</t>
-  </si>
-  <si>
-    <t>17,58%</t>
-  </si>
-  <si>
-    <t>13,0%</t>
-  </si>
-  <si>
-    <t>23,75%</t>
-  </si>
-  <si>
-    <t>16,55%</t>
-  </si>
-  <si>
-    <t>11,04%</t>
-  </si>
-  <si>
-    <t>23,18%</t>
-  </si>
-  <si>
-    <t>17,19%</t>
-  </si>
-  <si>
-    <t>13,46%</t>
-  </si>
-  <si>
-    <t>21,16%</t>
-  </si>
-  <si>
-    <t>14,0%</t>
-  </si>
-  <si>
-    <t>10,1%</t>
-  </si>
-  <si>
-    <t>20,47%</t>
-  </si>
-  <si>
-    <t>16,8%</t>
-  </si>
-  <si>
-    <t>11,25%</t>
-  </si>
-  <si>
-    <t>23,54%</t>
-  </si>
-  <si>
-    <t>15,06%</t>
-  </si>
-  <si>
-    <t>11,67%</t>
+    <t>15,37%</t>
   </si>
   <si>
     <t>19,03%</t>
   </si>
   <si>
-    <t>19,77%</t>
-  </si>
-  <si>
-    <t>14,61%</t>
-  </si>
-  <si>
-    <t>25,94%</t>
-  </si>
-  <si>
-    <t>26,01%</t>
-  </si>
-  <si>
-    <t>18,93%</t>
-  </si>
-  <si>
-    <t>33,57%</t>
-  </si>
-  <si>
-    <t>22,13%</t>
-  </si>
-  <si>
-    <t>17,97%</t>
-  </si>
-  <si>
-    <t>26,83%</t>
-  </si>
-  <si>
-    <t>Huelva</t>
-  </si>
-  <si>
-    <t>63,91%</t>
-  </si>
-  <si>
-    <t>55,06%</t>
-  </si>
-  <si>
-    <t>72,69%</t>
-  </si>
-  <si>
-    <t>61,97%</t>
-  </si>
-  <si>
-    <t>47,7%</t>
-  </si>
-  <si>
-    <t>74,52%</t>
-  </si>
-  <si>
-    <t>63,31%</t>
-  </si>
-  <si>
-    <t>55,0%</t>
-  </si>
-  <si>
-    <t>70,81%</t>
-  </si>
-  <si>
-    <t>8,65%</t>
-  </si>
-  <si>
-    <t>4,03%</t>
-  </si>
-  <si>
-    <t>14,52%</t>
-  </si>
-  <si>
-    <t>4,0%</t>
-  </si>
-  <si>
-    <t>0,0%</t>
-  </si>
-  <si>
-    <t>14,08%</t>
-  </si>
-  <si>
-    <t>7,2%</t>
-  </si>
-  <si>
-    <t>3,61%</t>
-  </si>
-  <si>
-    <t>12,14%</t>
-  </si>
-  <si>
-    <t>7,52%</t>
-  </si>
-  <si>
-    <t>3,25%</t>
-  </si>
-  <si>
-    <t>15,74%</t>
-  </si>
-  <si>
-    <t>14,07%</t>
-  </si>
-  <si>
-    <t>6,03%</t>
-  </si>
-  <si>
-    <t>25,29%</t>
-  </si>
-  <si>
-    <t>9,55%</t>
-  </si>
-  <si>
-    <t>5,19%</t>
-  </si>
-  <si>
-    <t>15,11%</t>
-  </si>
-  <si>
-    <t>19,93%</t>
-  </si>
-  <si>
-    <t>13,15%</t>
-  </si>
-  <si>
-    <t>28,12%</t>
-  </si>
-  <si>
-    <t>19,96%</t>
-  </si>
-  <si>
-    <t>10,11%</t>
-  </si>
-  <si>
-    <t>32,54%</t>
-  </si>
-  <si>
-    <t>19,94%</t>
-  </si>
-  <si>
-    <t>14,39%</t>
-  </si>
-  <si>
-    <t>26,76%</t>
-  </si>
-  <si>
-    <t>Jaen</t>
-  </si>
-  <si>
-    <t>47,82%</t>
-  </si>
-  <si>
-    <t>39,68%</t>
-  </si>
-  <si>
-    <t>55,67%</t>
-  </si>
-  <si>
-    <t>25,45%</t>
-  </si>
-  <si>
-    <t>16,6%</t>
-  </si>
-  <si>
-    <t>36,01%</t>
-  </si>
-  <si>
-    <t>40,06%</t>
-  </si>
-  <si>
-    <t>33,85%</t>
-  </si>
-  <si>
-    <t>46,54%</t>
-  </si>
-  <si>
-    <t>21,44%</t>
-  </si>
-  <si>
-    <t>15,78%</t>
-  </si>
-  <si>
-    <t>29,3%</t>
-  </si>
-  <si>
-    <t>23,72%</t>
-  </si>
-  <si>
-    <t>15,53%</t>
-  </si>
-  <si>
-    <t>33,02%</t>
-  </si>
-  <si>
-    <t>22,23%</t>
-  </si>
-  <si>
-    <t>17,32%</t>
-  </si>
-  <si>
-    <t>27,89%</t>
-  </si>
-  <si>
-    <t>14,24%</t>
-  </si>
-  <si>
-    <t>9,32%</t>
-  </si>
-  <si>
-    <t>21,36%</t>
-  </si>
-  <si>
-    <t>17,77%</t>
-  </si>
-  <si>
-    <t>9,59%</t>
-  </si>
-  <si>
-    <t>27,66%</t>
-  </si>
-  <si>
-    <t>15,46%</t>
-  </si>
-  <si>
-    <t>10,91%</t>
-  </si>
-  <si>
-    <t>20,44%</t>
-  </si>
-  <si>
-    <t>16,49%</t>
-  </si>
-  <si>
-    <t>11,28%</t>
-  </si>
-  <si>
-    <t>23,66%</t>
-  </si>
-  <si>
-    <t>33,07%</t>
-  </si>
-  <si>
-    <t>23,65%</t>
-  </si>
-  <si>
-    <t>43,72%</t>
-  </si>
-  <si>
-    <t>22,24%</t>
-  </si>
-  <si>
-    <t>17,51%</t>
-  </si>
-  <si>
-    <t>28,46%</t>
-  </si>
-  <si>
-    <t>Malaga</t>
-  </si>
-  <si>
-    <t>61,99%</t>
-  </si>
-  <si>
-    <t>56,61%</t>
-  </si>
-  <si>
-    <t>67,8%</t>
-  </si>
-  <si>
-    <t>41,14%</t>
-  </si>
-  <si>
-    <t>56,82%</t>
-  </si>
-  <si>
-    <t>57,73%</t>
-  </si>
-  <si>
-    <t>52,97%</t>
-  </si>
-  <si>
-    <t>61,92%</t>
-  </si>
-  <si>
-    <t>11,4%</t>
-  </si>
-  <si>
-    <t>8,01%</t>
-  </si>
-  <si>
-    <t>15,37%</t>
-  </si>
-  <si>
-    <t>17,3%</t>
-  </si>
-  <si>
-    <t>12,39%</t>
-  </si>
-  <si>
-    <t>23,41%</t>
-  </si>
-  <si>
-    <t>10,28%</t>
-  </si>
-  <si>
-    <t>17,06%</t>
-  </si>
-  <si>
-    <t>10,07%</t>
-  </si>
-  <si>
-    <t>6,62%</t>
-  </si>
-  <si>
-    <t>13,44%</t>
-  </si>
-  <si>
-    <t>14,1%</t>
-  </si>
-  <si>
-    <t>9,15%</t>
-  </si>
-  <si>
-    <t>20,49%</t>
-  </si>
-  <si>
-    <t>11,48%</t>
-  </si>
-  <si>
-    <t>8,91%</t>
-  </si>
-  <si>
-    <t>14,45%</t>
-  </si>
-  <si>
-    <t>16,53%</t>
-  </si>
-  <si>
-    <t>21,07%</t>
-  </si>
-  <si>
-    <t>18,82%</t>
-  </si>
-  <si>
-    <t>13,82%</t>
-  </si>
-  <si>
-    <t>25,83%</t>
-  </si>
-  <si>
-    <t>17,33%</t>
-  </si>
-  <si>
-    <t>14,35%</t>
-  </si>
-  <si>
-    <t>21,21%</t>
-  </si>
-  <si>
-    <t>Sevilla</t>
-  </si>
-  <si>
-    <t>65,85%</t>
-  </si>
-  <si>
-    <t>61,13%</t>
-  </si>
-  <si>
-    <t>70,66%</t>
-  </si>
-  <si>
-    <t>55,89%</t>
-  </si>
-  <si>
-    <t>49,8%</t>
-  </si>
-  <si>
-    <t>62,8%</t>
-  </si>
-  <si>
-    <t>62,47%</t>
-  </si>
-  <si>
-    <t>58,6%</t>
-  </si>
-  <si>
-    <t>66,08%</t>
-  </si>
-  <si>
-    <t>8,32%</t>
-  </si>
-  <si>
-    <t>6,22%</t>
-  </si>
-  <si>
-    <t>11,31%</t>
-  </si>
-  <si>
-    <t>11,3%</t>
-  </si>
-  <si>
-    <t>7,61%</t>
-  </si>
-  <si>
-    <t>15,75%</t>
-  </si>
-  <si>
-    <t>9,33%</t>
-  </si>
-  <si>
-    <t>7,3%</t>
-  </si>
-  <si>
-    <t>11,46%</t>
-  </si>
-  <si>
-    <t>8,49%</t>
-  </si>
-  <si>
-    <t>6,23%</t>
-  </si>
-  <si>
-    <t>11,71%</t>
-  </si>
-  <si>
-    <t>11,81%</t>
-  </si>
-  <si>
-    <t>8,08%</t>
-  </si>
-  <si>
-    <t>16,24%</t>
-  </si>
-  <si>
-    <t>9,62%</t>
-  </si>
-  <si>
-    <t>7,54%</t>
-  </si>
-  <si>
-    <t>12,12%</t>
-  </si>
-  <si>
-    <t>14,18%</t>
-  </si>
-  <si>
-    <t>21,61%</t>
-  </si>
-  <si>
-    <t>21,0%</t>
-  </si>
-  <si>
-    <t>15,95%</t>
-  </si>
-  <si>
-    <t>26,5%</t>
-  </si>
-  <si>
-    <t>18,58%</t>
-  </si>
-  <si>
-    <t>21,6%</t>
-  </si>
-  <si>
-    <t>56,78%</t>
-  </si>
-  <si>
-    <t>54,51%</t>
-  </si>
-  <si>
-    <t>59,0%</t>
-  </si>
-  <si>
-    <t>46,9%</t>
-  </si>
-  <si>
-    <t>50,04%</t>
-  </si>
-  <si>
-    <t>53,32%</t>
-  </si>
-  <si>
-    <t>51,43%</t>
-  </si>
-  <si>
-    <t>55,31%</t>
-  </si>
-  <si>
-    <t>13,53%</t>
-  </si>
-  <si>
-    <t>12,01%</t>
-  </si>
-  <si>
-    <t>15,16%</t>
-  </si>
-  <si>
-    <t>15,56%</t>
-  </si>
-  <si>
-    <t>13,5%</t>
-  </si>
-  <si>
-    <t>17,94%</t>
-  </si>
-  <si>
-    <t>12,89%</t>
-  </si>
-  <si>
-    <t>15,57%</t>
-  </si>
-  <si>
-    <t>12,59%</t>
-  </si>
-  <si>
-    <t>11,17%</t>
-  </si>
-  <si>
-    <t>15,27%</t>
-  </si>
-  <si>
-    <t>12,96%</t>
-  </si>
-  <si>
-    <t>17,64%</t>
-  </si>
-  <si>
-    <t>12,35%</t>
-  </si>
-  <si>
-    <t>14,92%</t>
-  </si>
-  <si>
-    <t>18,83%</t>
-  </si>
-  <si>
     <t>22,27%</t>
   </si>
   <si>
-    <t>19,81%</t>
-  </si>
-  <si>
-    <t>25,17%</t>
+    <t>19,65%</t>
+  </si>
+  <si>
+    <t>25,02%</t>
   </si>
   <si>
     <t>18,91%</t>
   </si>
   <si>
-    <t>17,53%</t>
-  </si>
-  <si>
-    <t>20,36%</t>
+    <t>17,46%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
@@ -1443,7 +1437,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CECA0A8D-FEE5-4BF2-A50A-AA8777BD2946}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FA3E0987-E38D-478A-B0C6-1E002C0D2956}">
   <dimension ref="A1:Q49"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1962,7 +1956,7 @@
         <v>76</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>37</v>
+        <v>77</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -1977,13 +1971,13 @@
         <v>46967</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="H12" s="7">
         <v>29</v>
@@ -1992,13 +1986,13 @@
         <v>28415</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="M12" s="7">
         <v>70</v>
@@ -2007,13 +2001,13 @@
         <v>75382</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -2069,7 +2063,7 @@
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="B14" s="5" t="s">
         <v>10</v>
@@ -2081,13 +2075,13 @@
         <v>98606</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="H14" s="7">
         <v>52</v>
@@ -2096,13 +2090,13 @@
         <v>52609</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="M14" s="7">
         <v>146</v>
@@ -2111,13 +2105,13 @@
         <v>151215</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -2132,13 +2126,13 @@
         <v>29504</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="H15" s="7">
         <v>15</v>
@@ -2147,13 +2141,13 @@
         <v>14844</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="M15" s="7">
         <v>42</v>
@@ -2162,13 +2156,13 @@
         <v>44348</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>42</v>
+        <v>104</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
@@ -2183,13 +2177,13 @@
         <v>26276</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="H16" s="7">
         <v>15</v>
@@ -2198,13 +2192,13 @@
         <v>15218</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="M16" s="7">
         <v>41</v>
@@ -2213,13 +2207,13 @@
         <v>41494</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>74</v>
+        <v>113</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>111</v>
+        <v>114</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -2234,13 +2228,13 @@
         <v>21317</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>113</v>
+        <v>116</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>114</v>
+        <v>117</v>
       </c>
       <c r="H17" s="7">
         <v>12</v>
@@ -2249,13 +2243,13 @@
         <v>11895</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="M17" s="7">
         <v>32</v>
@@ -2264,13 +2258,13 @@
         <v>33213</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>118</v>
+        <v>104</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -2326,7 +2320,7 @@
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="B19" s="5" t="s">
         <v>10</v>
@@ -2338,13 +2332,13 @@
         <v>108755</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="H19" s="7">
         <v>55</v>
@@ -2353,13 +2347,13 @@
         <v>55306</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="M19" s="7">
         <v>162</v>
@@ -2368,13 +2362,13 @@
         <v>164061</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -2389,13 +2383,13 @@
         <v>39291</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="H20" s="7">
         <v>23</v>
@@ -2404,13 +2398,13 @@
         <v>22524</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="M20" s="7">
         <v>62</v>
@@ -2419,13 +2413,13 @@
         <v>61815</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -2440,13 +2434,13 @@
         <v>31304</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="H21" s="7">
         <v>23</v>
@@ -2455,13 +2449,13 @@
         <v>22863</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="M21" s="7">
         <v>53</v>
@@ -2470,13 +2464,13 @@
         <v>54167</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -2491,13 +2485,13 @@
         <v>44194</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="H22" s="7">
         <v>36</v>
@@ -2506,13 +2500,13 @@
         <v>35392</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="M22" s="7">
         <v>79</v>
@@ -2521,13 +2515,13 @@
         <v>79586</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -2583,7 +2577,7 @@
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A24" s="1" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="B24" s="5" t="s">
         <v>10</v>
@@ -2595,13 +2589,13 @@
         <v>71688</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="H24" s="7">
         <v>28</v>
@@ -2610,13 +2604,13 @@
         <v>31251</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="M24" s="7">
         <v>99</v>
@@ -2625,13 +2619,13 @@
         <v>102939</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -2646,13 +2640,13 @@
         <v>9698</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="H25" s="7">
         <v>2</v>
@@ -2661,13 +2655,13 @@
         <v>2015</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="M25" s="7">
         <v>12</v>
@@ -2676,13 +2670,13 @@
         <v>11713</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -2697,13 +2691,13 @@
         <v>8436</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="H26" s="7">
         <v>7</v>
@@ -2712,13 +2706,13 @@
         <v>7093</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="M26" s="7">
         <v>14</v>
@@ -2727,13 +2721,13 @@
         <v>15529</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -2748,13 +2742,13 @@
         <v>22355</v>
       </c>
       <c r="E27" s="7" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="F27" s="7" t="s">
-        <v>187</v>
+        <v>118</v>
       </c>
       <c r="G27" s="7" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="H27" s="7">
         <v>10</v>
@@ -2763,13 +2757,13 @@
         <v>10067</v>
       </c>
       <c r="J27" s="7" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="K27" s="7" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="L27" s="7" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="M27" s="7">
         <v>32</v>
@@ -2778,13 +2772,13 @@
         <v>32422</v>
       </c>
       <c r="O27" s="7" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="P27" s="7" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="Q27" s="7" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
@@ -2840,7 +2834,7 @@
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A29" s="1" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="B29" s="5" t="s">
         <v>10</v>
@@ -2852,13 +2846,13 @@
         <v>74612</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="H29" s="7">
         <v>21</v>
@@ -2867,13 +2861,13 @@
         <v>21074</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="M29" s="7">
         <v>92</v>
@@ -2882,13 +2876,13 @@
         <v>95687</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -2903,13 +2897,13 @@
         <v>33454</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>207</v>
+        <v>33</v>
       </c>
       <c r="H30" s="7">
         <v>19</v>
@@ -3124,13 +3118,13 @@
         <v>89876</v>
       </c>
       <c r="J34" s="7" t="s">
-        <v>94</v>
+        <v>236</v>
       </c>
       <c r="K34" s="7" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="L34" s="7" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="M34" s="7">
         <v>278</v>
@@ -3139,13 +3133,13 @@
         <v>298647</v>
       </c>
       <c r="O34" s="7" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="P34" s="7" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="Q34" s="7" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.3">
@@ -3160,13 +3154,13 @@
         <v>38404</v>
       </c>
       <c r="E35" s="7" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="F35" s="7" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="G35" s="7" t="s">
-        <v>243</v>
+        <v>187</v>
       </c>
       <c r="H35" s="7">
         <v>29</v>
@@ -3190,13 +3184,13 @@
         <v>69632</v>
       </c>
       <c r="O35" s="7" t="s">
-        <v>138</v>
+        <v>247</v>
       </c>
       <c r="P35" s="7" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="Q35" s="7" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
     </row>
     <row r="36" spans="1:17" x14ac:dyDescent="0.3">
@@ -3211,13 +3205,13 @@
         <v>33919</v>
       </c>
       <c r="E36" s="7" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="F36" s="7" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="G36" s="7" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="H36" s="7">
         <v>24</v>
@@ -3226,13 +3220,13 @@
         <v>25457</v>
       </c>
       <c r="J36" s="7" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="K36" s="7" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="L36" s="7" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="M36" s="7">
         <v>57</v>
@@ -3241,7 +3235,7 @@
         <v>59376</v>
       </c>
       <c r="O36" s="7" t="s">
-        <v>255</v>
+        <v>71</v>
       </c>
       <c r="P36" s="7" t="s">
         <v>256</v>
@@ -3265,10 +3259,10 @@
         <v>258</v>
       </c>
       <c r="F37" s="7" t="s">
-        <v>118</v>
+        <v>259</v>
       </c>
       <c r="G37" s="7" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="H37" s="7">
         <v>34</v>
@@ -3277,13 +3271,13 @@
         <v>33986</v>
       </c>
       <c r="J37" s="7" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="K37" s="7" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="L37" s="7" t="s">
-        <v>262</v>
+        <v>43</v>
       </c>
       <c r="M37" s="7">
         <v>87</v>
@@ -3552,10 +3546,10 @@
         <v>299</v>
       </c>
       <c r="P42" s="7" t="s">
-        <v>70</v>
+        <v>300</v>
       </c>
       <c r="Q42" s="7" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
     </row>
     <row r="43" spans="1:17" x14ac:dyDescent="0.3">
@@ -3623,13 +3617,13 @@
         <v>1081280</v>
       </c>
       <c r="E44" s="7" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="F44" s="7" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="G44" s="7" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="H44" s="7">
         <v>454</v>
@@ -3638,13 +3632,13 @@
         <v>481298</v>
       </c>
       <c r="J44" s="7" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="K44" s="7" t="s">
-        <v>228</v>
+        <v>59</v>
       </c>
       <c r="L44" s="7" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="M44" s="7">
         <v>1490</v>
@@ -3653,13 +3647,13 @@
         <v>1562579</v>
       </c>
       <c r="O44" s="7" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="P44" s="7" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="Q44" s="7" t="s">
-        <v>308</v>
+        <v>168</v>
       </c>
     </row>
     <row r="45" spans="1:17" x14ac:dyDescent="0.3">
@@ -3689,13 +3683,13 @@
         <v>159662</v>
       </c>
       <c r="J45" s="7" t="s">
+        <v>300</v>
+      </c>
+      <c r="K45" s="7" t="s">
         <v>312</v>
       </c>
-      <c r="K45" s="7" t="s">
+      <c r="L45" s="7" t="s">
         <v>313</v>
-      </c>
-      <c r="L45" s="7" t="s">
-        <v>314</v>
       </c>
       <c r="M45" s="7">
         <v>401</v>
@@ -3707,10 +3701,10 @@
         <v>214</v>
       </c>
       <c r="P45" s="7" t="s">
+        <v>314</v>
+      </c>
+      <c r="Q45" s="7" t="s">
         <v>315</v>
-      </c>
-      <c r="Q45" s="7" t="s">
-        <v>316</v>
       </c>
     </row>
     <row r="46" spans="1:17" x14ac:dyDescent="0.3">
@@ -3725,13 +3719,13 @@
         <v>239683</v>
       </c>
       <c r="E46" s="7" t="s">
+        <v>316</v>
+      </c>
+      <c r="F46" s="7" t="s">
         <v>317</v>
       </c>
-      <c r="F46" s="7" t="s">
+      <c r="G46" s="7" t="s">
         <v>318</v>
-      </c>
-      <c r="G46" s="7" t="s">
-        <v>214</v>
       </c>
       <c r="H46" s="7">
         <v>152</v>
@@ -3746,7 +3740,7 @@
         <v>320</v>
       </c>
       <c r="L46" s="7" t="s">
-        <v>321</v>
+        <v>133</v>
       </c>
       <c r="M46" s="7">
         <v>382</v>
@@ -3758,10 +3752,10 @@
         <v>309</v>
       </c>
       <c r="P46" s="7" t="s">
-        <v>322</v>
+        <v>293</v>
       </c>
       <c r="Q46" s="7" t="s">
-        <v>323</v>
+        <v>106</v>
       </c>
     </row>
     <row r="47" spans="1:17" x14ac:dyDescent="0.3">
@@ -3776,13 +3770,13 @@
         <v>325725</v>
       </c>
       <c r="E47" s="7" t="s">
-        <v>120</v>
+        <v>321</v>
       </c>
       <c r="F47" s="7" t="s">
-        <v>312</v>
+        <v>322</v>
       </c>
       <c r="G47" s="7" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="H47" s="7">
         <v>224</v>
@@ -3791,13 +3785,13 @@
         <v>228576</v>
       </c>
       <c r="J47" s="7" t="s">
+        <v>324</v>
+      </c>
+      <c r="K47" s="7" t="s">
         <v>325</v>
       </c>
-      <c r="K47" s="7" t="s">
+      <c r="L47" s="7" t="s">
         <v>326</v>
-      </c>
-      <c r="L47" s="7" t="s">
-        <v>327</v>
       </c>
       <c r="M47" s="7">
         <v>533</v>
@@ -3806,13 +3800,13 @@
         <v>554301</v>
       </c>
       <c r="O47" s="7" t="s">
+        <v>327</v>
+      </c>
+      <c r="P47" s="7" t="s">
         <v>328</v>
       </c>
-      <c r="P47" s="7" t="s">
-        <v>329</v>
-      </c>
       <c r="Q47" s="7" t="s">
-        <v>330</v>
+        <v>114</v>
       </c>
     </row>
     <row r="48" spans="1:17" x14ac:dyDescent="0.3">
@@ -3868,7 +3862,7 @@
     </row>
     <row r="49" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/P6512-Provincia-trans_orig.xlsx
+++ b/data/trans_orig/P6512-Provincia-trans_orig.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{15EEEE01-F163-439A-B4CC-3DE7EBAB4982}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{467DA9E6-85C6-45CE-877F-0CA0FCE9FD3C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{D255B229-2000-48AF-8266-5BB79CB2B7B5}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{70A42ED2-1263-4D1D-93B4-80AAE8FC977C}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="479" uniqueCount="330">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="479" uniqueCount="333">
   <si>
     <t>Población según el uso de ordenadores durante las tareas de su trabajo en 2007 (Tasa respuesta: 43,1%)</t>
   </si>
@@ -74,28 +74,28 @@
     <t>44,84%</t>
   </si>
   <si>
-    <t>36,3%</t>
-  </si>
-  <si>
-    <t>52,59%</t>
+    <t>36,71%</t>
+  </si>
+  <si>
+    <t>52,68%</t>
   </si>
   <si>
     <t>34,94%</t>
   </si>
   <si>
-    <t>25,52%</t>
-  </si>
-  <si>
-    <t>45,31%</t>
+    <t>26,28%</t>
+  </si>
+  <si>
+    <t>45,09%</t>
   </si>
   <si>
     <t>40,84%</t>
   </si>
   <si>
-    <t>34,77%</t>
-  </si>
-  <si>
-    <t>46,89%</t>
+    <t>35,15%</t>
+  </si>
+  <si>
+    <t>46,73%</t>
   </si>
   <si>
     <t>Algunas veces</t>
@@ -104,925 +104,934 @@
     <t>16,1%</t>
   </si>
   <si>
-    <t>10,62%</t>
-  </si>
-  <si>
-    <t>22,84%</t>
+    <t>11,2%</t>
+  </si>
+  <si>
+    <t>22,56%</t>
   </si>
   <si>
     <t>18,37%</t>
   </si>
   <si>
-    <t>11,66%</t>
-  </si>
-  <si>
-    <t>28,03%</t>
+    <t>10,97%</t>
+  </si>
+  <si>
+    <t>26,98%</t>
   </si>
   <si>
     <t>17,01%</t>
   </si>
   <si>
+    <t>12,59%</t>
+  </si>
+  <si>
+    <t>21,9%</t>
+  </si>
+  <si>
+    <t>Muchas veces</t>
+  </si>
+  <si>
+    <t>21,51%</t>
+  </si>
+  <si>
+    <t>15,0%</t>
+  </si>
+  <si>
+    <t>28,49%</t>
+  </si>
+  <si>
+    <t>18,8%</t>
+  </si>
+  <si>
+    <t>12,29%</t>
+  </si>
+  <si>
+    <t>27,26%</t>
+  </si>
+  <si>
+    <t>20,41%</t>
+  </si>
+  <si>
+    <t>16,17%</t>
+  </si>
+  <si>
+    <t>25,65%</t>
+  </si>
+  <si>
+    <t>Siempre</t>
+  </si>
+  <si>
+    <t>17,55%</t>
+  </si>
+  <si>
+    <t>11,89%</t>
+  </si>
+  <si>
+    <t>24,59%</t>
+  </si>
+  <si>
+    <t>27,9%</t>
+  </si>
+  <si>
+    <t>19,79%</t>
+  </si>
+  <si>
+    <t>37,45%</t>
+  </si>
+  <si>
+    <t>21,73%</t>
+  </si>
+  <si>
+    <t>16,97%</t>
+  </si>
+  <si>
+    <t>26,74%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>Cadiz</t>
+  </si>
+  <si>
+    <t>51,37%</t>
+  </si>
+  <si>
+    <t>44,37%</t>
+  </si>
+  <si>
+    <t>57,35%</t>
+  </si>
+  <si>
+    <t>44,72%</t>
+  </si>
+  <si>
+    <t>35,66%</t>
+  </si>
+  <si>
+    <t>53,02%</t>
+  </si>
+  <si>
+    <t>49,2%</t>
+  </si>
+  <si>
+    <t>44,12%</t>
+  </si>
+  <si>
+    <t>54,06%</t>
+  </si>
+  <si>
+    <t>15,55%</t>
+  </si>
+  <si>
+    <t>11,59%</t>
+  </si>
+  <si>
+    <t>21,41%</t>
+  </si>
+  <si>
+    <t>16,69%</t>
+  </si>
+  <si>
+    <t>10,74%</t>
+  </si>
+  <si>
+    <t>24,5%</t>
+  </si>
+  <si>
+    <t>15,92%</t>
+  </si>
+  <si>
     <t>12,34%</t>
   </si>
   <si>
-    <t>21,86%</t>
-  </si>
-  <si>
-    <t>Muchas veces</t>
-  </si>
-  <si>
-    <t>21,51%</t>
-  </si>
-  <si>
-    <t>15,07%</t>
-  </si>
-  <si>
-    <t>28,85%</t>
-  </si>
-  <si>
-    <t>18,8%</t>
-  </si>
-  <si>
-    <t>12,53%</t>
-  </si>
-  <si>
-    <t>28,75%</t>
-  </si>
-  <si>
-    <t>20,41%</t>
-  </si>
-  <si>
-    <t>15,74%</t>
-  </si>
-  <si>
-    <t>25,77%</t>
-  </si>
-  <si>
-    <t>Siempre</t>
-  </si>
-  <si>
-    <t>17,55%</t>
-  </si>
-  <si>
-    <t>12,57%</t>
-  </si>
-  <si>
-    <t>25,47%</t>
-  </si>
-  <si>
-    <t>27,9%</t>
-  </si>
-  <si>
-    <t>19,69%</t>
-  </si>
-  <si>
-    <t>38,2%</t>
-  </si>
-  <si>
-    <t>21,73%</t>
-  </si>
-  <si>
-    <t>17,31%</t>
-  </si>
-  <si>
-    <t>27,74%</t>
-  </si>
-  <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>Cadiz</t>
-  </si>
-  <si>
-    <t>51,37%</t>
-  </si>
-  <si>
-    <t>45,6%</t>
-  </si>
-  <si>
-    <t>58,0%</t>
-  </si>
-  <si>
-    <t>44,72%</t>
-  </si>
-  <si>
-    <t>35,45%</t>
-  </si>
-  <si>
-    <t>52,45%</t>
-  </si>
-  <si>
-    <t>49,2%</t>
-  </si>
-  <si>
-    <t>43,82%</t>
-  </si>
-  <si>
-    <t>54,65%</t>
-  </si>
-  <si>
-    <t>15,55%</t>
+    <t>19,8%</t>
+  </si>
+  <si>
+    <t>15,72%</t>
+  </si>
+  <si>
+    <t>11,57%</t>
+  </si>
+  <si>
+    <t>20,5%</t>
+  </si>
+  <si>
+    <t>16,88%</t>
+  </si>
+  <si>
+    <t>10,54%</t>
+  </si>
+  <si>
+    <t>23,62%</t>
+  </si>
+  <si>
+    <t>12,33%</t>
+  </si>
+  <si>
+    <t>20,21%</t>
+  </si>
+  <si>
+    <t>17,36%</t>
+  </si>
+  <si>
+    <t>12,64%</t>
+  </si>
+  <si>
+    <t>23,12%</t>
+  </si>
+  <si>
+    <t>21,72%</t>
+  </si>
+  <si>
+    <t>15,4%</t>
+  </si>
+  <si>
+    <t>29,52%</t>
+  </si>
+  <si>
+    <t>18,78%</t>
+  </si>
+  <si>
+    <t>15,36%</t>
+  </si>
+  <si>
+    <t>23,32%</t>
+  </si>
+  <si>
+    <t>Cordoba</t>
+  </si>
+  <si>
+    <t>56,12%</t>
+  </si>
+  <si>
+    <t>48,56%</t>
+  </si>
+  <si>
+    <t>63,75%</t>
+  </si>
+  <si>
+    <t>55,63%</t>
+  </si>
+  <si>
+    <t>45,48%</t>
+  </si>
+  <si>
+    <t>65,56%</t>
+  </si>
+  <si>
+    <t>55,95%</t>
+  </si>
+  <si>
+    <t>49,79%</t>
+  </si>
+  <si>
+    <t>62,39%</t>
+  </si>
+  <si>
+    <t>16,79%</t>
+  </si>
+  <si>
+    <t>11,6%</t>
+  </si>
+  <si>
+    <t>22,76%</t>
+  </si>
+  <si>
+    <t>15,7%</t>
+  </si>
+  <si>
+    <t>9,3%</t>
+  </si>
+  <si>
+    <t>23,94%</t>
+  </si>
+  <si>
+    <t>16,41%</t>
+  </si>
+  <si>
+    <t>12,02%</t>
+  </si>
+  <si>
+    <t>21,62%</t>
+  </si>
+  <si>
+    <t>14,95%</t>
+  </si>
+  <si>
+    <t>10,25%</t>
+  </si>
+  <si>
+    <t>21,05%</t>
+  </si>
+  <si>
+    <t>16,09%</t>
+  </si>
+  <si>
+    <t>9,74%</t>
+  </si>
+  <si>
+    <t>24,96%</t>
+  </si>
+  <si>
+    <t>15,35%</t>
+  </si>
+  <si>
+    <t>20,17%</t>
+  </si>
+  <si>
+    <t>12,13%</t>
+  </si>
+  <si>
+    <t>7,68%</t>
+  </si>
+  <si>
+    <t>17,4%</t>
+  </si>
+  <si>
+    <t>12,58%</t>
+  </si>
+  <si>
+    <t>6,41%</t>
+  </si>
+  <si>
+    <t>20,14%</t>
+  </si>
+  <si>
+    <t>8,4%</t>
+  </si>
+  <si>
+    <t>16,85%</t>
+  </si>
+  <si>
+    <t>Granada</t>
+  </si>
+  <si>
+    <t>48,65%</t>
+  </si>
+  <si>
+    <t>41,69%</t>
+  </si>
+  <si>
+    <t>55,46%</t>
+  </si>
+  <si>
+    <t>40,64%</t>
+  </si>
+  <si>
+    <t>32,2%</t>
+  </si>
+  <si>
+    <t>48,29%</t>
+  </si>
+  <si>
+    <t>45,62%</t>
+  </si>
+  <si>
+    <t>40,35%</t>
+  </si>
+  <si>
+    <t>50,92%</t>
+  </si>
+  <si>
+    <t>17,58%</t>
+  </si>
+  <si>
+    <t>12,82%</t>
+  </si>
+  <si>
+    <t>23,29%</t>
+  </si>
+  <si>
+    <t>16,55%</t>
+  </si>
+  <si>
+    <t>10,9%</t>
+  </si>
+  <si>
+    <t>23,05%</t>
+  </si>
+  <si>
+    <t>17,19%</t>
+  </si>
+  <si>
+    <t>13,35%</t>
+  </si>
+  <si>
+    <t>21,19%</t>
+  </si>
+  <si>
+    <t>14,0%</t>
+  </si>
+  <si>
+    <t>9,77%</t>
+  </si>
+  <si>
+    <t>19,2%</t>
+  </si>
+  <si>
+    <t>16,8%</t>
+  </si>
+  <si>
+    <t>11,52%</t>
+  </si>
+  <si>
+    <t>23,77%</t>
+  </si>
+  <si>
+    <t>15,06%</t>
+  </si>
+  <si>
+    <t>11,61%</t>
+  </si>
+  <si>
+    <t>19,03%</t>
+  </si>
+  <si>
+    <t>19,77%</t>
+  </si>
+  <si>
+    <t>15,03%</t>
+  </si>
+  <si>
+    <t>25,32%</t>
+  </si>
+  <si>
+    <t>26,01%</t>
+  </si>
+  <si>
+    <t>18,54%</t>
+  </si>
+  <si>
+    <t>33,62%</t>
+  </si>
+  <si>
+    <t>22,13%</t>
+  </si>
+  <si>
+    <t>17,78%</t>
+  </si>
+  <si>
+    <t>26,72%</t>
+  </si>
+  <si>
+    <t>Huelva</t>
+  </si>
+  <si>
+    <t>63,91%</t>
+  </si>
+  <si>
+    <t>53,99%</t>
+  </si>
+  <si>
+    <t>72,95%</t>
+  </si>
+  <si>
+    <t>61,97%</t>
+  </si>
+  <si>
+    <t>48,46%</t>
+  </si>
+  <si>
+    <t>75,38%</t>
+  </si>
+  <si>
+    <t>63,31%</t>
+  </si>
+  <si>
+    <t>56,05%</t>
+  </si>
+  <si>
+    <t>70,5%</t>
+  </si>
+  <si>
+    <t>8,65%</t>
+  </si>
+  <si>
+    <t>4,16%</t>
+  </si>
+  <si>
+    <t>15,39%</t>
+  </si>
+  <si>
+    <t>4,0%</t>
+  </si>
+  <si>
+    <t>0,0%</t>
+  </si>
+  <si>
+    <t>13,82%</t>
+  </si>
+  <si>
+    <t>7,2%</t>
+  </si>
+  <si>
+    <t>3,64%</t>
+  </si>
+  <si>
+    <t>12,17%</t>
+  </si>
+  <si>
+    <t>7,52%</t>
+  </si>
+  <si>
+    <t>3,13%</t>
+  </si>
+  <si>
+    <t>14,8%</t>
+  </si>
+  <si>
+    <t>14,07%</t>
+  </si>
+  <si>
+    <t>6,1%</t>
+  </si>
+  <si>
+    <t>26,77%</t>
+  </si>
+  <si>
+    <t>9,55%</t>
+  </si>
+  <si>
+    <t>5,61%</t>
+  </si>
+  <si>
+    <t>15,2%</t>
+  </si>
+  <si>
+    <t>19,93%</t>
+  </si>
+  <si>
+    <t>13,18%</t>
+  </si>
+  <si>
+    <t>28,5%</t>
+  </si>
+  <si>
+    <t>19,96%</t>
+  </si>
+  <si>
+    <t>9,54%</t>
+  </si>
+  <si>
+    <t>31,89%</t>
+  </si>
+  <si>
+    <t>19,94%</t>
+  </si>
+  <si>
+    <t>13,97%</t>
+  </si>
+  <si>
+    <t>26,59%</t>
+  </si>
+  <si>
+    <t>Jaen</t>
+  </si>
+  <si>
+    <t>47,82%</t>
+  </si>
+  <si>
+    <t>39,89%</t>
+  </si>
+  <si>
+    <t>56,45%</t>
+  </si>
+  <si>
+    <t>25,45%</t>
+  </si>
+  <si>
+    <t>16,74%</t>
+  </si>
+  <si>
+    <t>36,73%</t>
+  </si>
+  <si>
+    <t>40,06%</t>
+  </si>
+  <si>
+    <t>34,2%</t>
+  </si>
+  <si>
+    <t>46,97%</t>
+  </si>
+  <si>
+    <t>21,44%</t>
+  </si>
+  <si>
+    <t>15,33%</t>
+  </si>
+  <si>
+    <t>28,81%</t>
+  </si>
+  <si>
+    <t>23,72%</t>
+  </si>
+  <si>
+    <t>15,25%</t>
+  </si>
+  <si>
+    <t>33,73%</t>
+  </si>
+  <si>
+    <t>22,23%</t>
+  </si>
+  <si>
+    <t>17,03%</t>
+  </si>
+  <si>
+    <t>28,04%</t>
+  </si>
+  <si>
+    <t>14,24%</t>
+  </si>
+  <si>
+    <t>9,64%</t>
+  </si>
+  <si>
+    <t>21,35%</t>
+  </si>
+  <si>
+    <t>17,77%</t>
+  </si>
+  <si>
+    <t>10,32%</t>
+  </si>
+  <si>
+    <t>27,31%</t>
+  </si>
+  <si>
+    <t>15,46%</t>
+  </si>
+  <si>
+    <t>10,84%</t>
+  </si>
+  <si>
+    <t>19,89%</t>
+  </si>
+  <si>
+    <t>16,49%</t>
+  </si>
+  <si>
+    <t>11,34%</t>
+  </si>
+  <si>
+    <t>23,18%</t>
+  </si>
+  <si>
+    <t>33,07%</t>
+  </si>
+  <si>
+    <t>44,55%</t>
+  </si>
+  <si>
+    <t>22,24%</t>
+  </si>
+  <si>
+    <t>17,07%</t>
+  </si>
+  <si>
+    <t>28,2%</t>
+  </si>
+  <si>
+    <t>Malaga</t>
+  </si>
+  <si>
+    <t>61,99%</t>
+  </si>
+  <si>
+    <t>56,41%</t>
+  </si>
+  <si>
+    <t>67,09%</t>
+  </si>
+  <si>
+    <t>49,78%</t>
+  </si>
+  <si>
+    <t>40,7%</t>
+  </si>
+  <si>
+    <t>56,89%</t>
+  </si>
+  <si>
+    <t>57,73%</t>
+  </si>
+  <si>
+    <t>53,26%</t>
+  </si>
+  <si>
+    <t>62,03%</t>
+  </si>
+  <si>
+    <t>11,4%</t>
+  </si>
+  <si>
+    <t>8,08%</t>
+  </si>
+  <si>
+    <t>15,27%</t>
+  </si>
+  <si>
+    <t>17,3%</t>
+  </si>
+  <si>
+    <t>12,22%</t>
+  </si>
+  <si>
+    <t>24,01%</t>
+  </si>
+  <si>
+    <t>13,46%</t>
+  </si>
+  <si>
+    <t>10,61%</t>
+  </si>
+  <si>
+    <t>16,76%</t>
+  </si>
+  <si>
+    <t>10,07%</t>
+  </si>
+  <si>
+    <t>7,15%</t>
+  </si>
+  <si>
+    <t>13,59%</t>
+  </si>
+  <si>
+    <t>14,1%</t>
+  </si>
+  <si>
+    <t>9,45%</t>
+  </si>
+  <si>
+    <t>11,48%</t>
+  </si>
+  <si>
+    <t>8,86%</t>
+  </si>
+  <si>
+    <t>14,83%</t>
+  </si>
+  <si>
+    <t>16,53%</t>
+  </si>
+  <si>
+    <t>12,63%</t>
+  </si>
+  <si>
+    <t>21,01%</t>
+  </si>
+  <si>
+    <t>18,82%</t>
+  </si>
+  <si>
+    <t>13,88%</t>
+  </si>
+  <si>
+    <t>25,25%</t>
+  </si>
+  <si>
+    <t>17,33%</t>
+  </si>
+  <si>
+    <t>14,05%</t>
+  </si>
+  <si>
+    <t>20,95%</t>
+  </si>
+  <si>
+    <t>Sevilla</t>
+  </si>
+  <si>
+    <t>65,85%</t>
+  </si>
+  <si>
+    <t>61,44%</t>
+  </si>
+  <si>
+    <t>69,83%</t>
+  </si>
+  <si>
+    <t>55,89%</t>
+  </si>
+  <si>
+    <t>48,91%</t>
+  </si>
+  <si>
+    <t>62,05%</t>
+  </si>
+  <si>
+    <t>62,47%</t>
+  </si>
+  <si>
+    <t>58,78%</t>
+  </si>
+  <si>
+    <t>66,3%</t>
+  </si>
+  <si>
+    <t>8,32%</t>
+  </si>
+  <si>
+    <t>6,04%</t>
+  </si>
+  <si>
+    <t>11,11%</t>
+  </si>
+  <si>
+    <t>11,3%</t>
+  </si>
+  <si>
+    <t>7,91%</t>
+  </si>
+  <si>
+    <t>16,3%</t>
+  </si>
+  <si>
+    <t>9,33%</t>
+  </si>
+  <si>
+    <t>7,46%</t>
+  </si>
+  <si>
+    <t>11,82%</t>
+  </si>
+  <si>
+    <t>8,49%</t>
+  </si>
+  <si>
+    <t>6,32%</t>
   </si>
   <si>
     <t>11,24%</t>
   </si>
   <si>
-    <t>20,4%</t>
-  </si>
-  <si>
-    <t>16,69%</t>
-  </si>
-  <si>
-    <t>10,98%</t>
-  </si>
-  <si>
-    <t>24,95%</t>
-  </si>
-  <si>
-    <t>15,92%</t>
+    <t>11,81%</t>
+  </si>
+  <si>
+    <t>7,98%</t>
+  </si>
+  <si>
+    <t>16,28%</t>
+  </si>
+  <si>
+    <t>9,62%</t>
+  </si>
+  <si>
+    <t>7,35%</t>
+  </si>
+  <si>
+    <t>21,46%</t>
+  </si>
+  <si>
+    <t>21,0%</t>
+  </si>
+  <si>
+    <t>15,99%</t>
+  </si>
+  <si>
+    <t>26,86%</t>
+  </si>
+  <si>
+    <t>18,58%</t>
+  </si>
+  <si>
+    <t>15,63%</t>
+  </si>
+  <si>
+    <t>21,79%</t>
+  </si>
+  <si>
+    <t>56,78%</t>
+  </si>
+  <si>
+    <t>54,52%</t>
+  </si>
+  <si>
+    <t>59,21%</t>
+  </si>
+  <si>
+    <t>46,9%</t>
+  </si>
+  <si>
+    <t>43,75%</t>
+  </si>
+  <si>
+    <t>49,8%</t>
+  </si>
+  <si>
+    <t>53,32%</t>
+  </si>
+  <si>
+    <t>51,48%</t>
+  </si>
+  <si>
+    <t>55,05%</t>
+  </si>
+  <si>
+    <t>13,53%</t>
+  </si>
+  <si>
+    <t>11,99%</t>
+  </si>
+  <si>
+    <t>15,1%</t>
+  </si>
+  <si>
+    <t>15,56%</t>
+  </si>
+  <si>
+    <t>13,3%</t>
+  </si>
+  <si>
+    <t>18,0%</t>
+  </si>
+  <si>
+    <t>13,0%</t>
+  </si>
+  <si>
+    <t>10,99%</t>
+  </si>
+  <si>
+    <t>14,08%</t>
+  </si>
+  <si>
+    <t>13,17%</t>
+  </si>
+  <si>
+    <t>17,57%</t>
   </si>
   <si>
     <t>12,2%</t>
   </si>
   <si>
-    <t>20,25%</t>
-  </si>
-  <si>
-    <t>15,72%</t>
-  </si>
-  <si>
-    <t>11,48%</t>
-  </si>
-  <si>
-    <t>20,54%</t>
-  </si>
-  <si>
-    <t>16,88%</t>
-  </si>
-  <si>
-    <t>11,12%</t>
-  </si>
-  <si>
-    <t>24,23%</t>
-  </si>
-  <si>
-    <t>12,73%</t>
-  </si>
-  <si>
-    <t>20,39%</t>
-  </si>
-  <si>
-    <t>17,36%</t>
-  </si>
-  <si>
-    <t>12,46%</t>
-  </si>
-  <si>
-    <t>22,52%</t>
-  </si>
-  <si>
-    <t>21,72%</t>
-  </si>
-  <si>
-    <t>15,14%</t>
-  </si>
-  <si>
-    <t>29,36%</t>
-  </si>
-  <si>
-    <t>18,78%</t>
-  </si>
-  <si>
-    <t>15,1%</t>
-  </si>
-  <si>
-    <t>23,13%</t>
-  </si>
-  <si>
-    <t>Cordoba</t>
-  </si>
-  <si>
-    <t>56,12%</t>
-  </si>
-  <si>
-    <t>47,97%</t>
-  </si>
-  <si>
-    <t>64,2%</t>
-  </si>
-  <si>
-    <t>55,63%</t>
-  </si>
-  <si>
-    <t>45,64%</t>
-  </si>
-  <si>
-    <t>65,32%</t>
-  </si>
-  <si>
-    <t>55,95%</t>
-  </si>
-  <si>
-    <t>49,91%</t>
-  </si>
-  <si>
-    <t>62,01%</t>
-  </si>
-  <si>
-    <t>16,79%</t>
-  </si>
-  <si>
-    <t>11,84%</t>
-  </si>
-  <si>
-    <t>23,7%</t>
-  </si>
-  <si>
-    <t>15,7%</t>
-  </si>
-  <si>
-    <t>9,34%</t>
-  </si>
-  <si>
-    <t>24,3%</t>
-  </si>
-  <si>
-    <t>16,41%</t>
-  </si>
-  <si>
-    <t>12,29%</t>
-  </si>
-  <si>
-    <t>21,27%</t>
-  </si>
-  <si>
-    <t>14,95%</t>
-  </si>
-  <si>
-    <t>10,01%</t>
-  </si>
-  <si>
-    <t>21,12%</t>
-  </si>
-  <si>
-    <t>16,09%</t>
-  </si>
-  <si>
-    <t>9,78%</t>
-  </si>
-  <si>
-    <t>25,1%</t>
-  </si>
-  <si>
-    <t>15,35%</t>
-  </si>
-  <si>
-    <t>11,44%</t>
-  </si>
-  <si>
-    <t>20,37%</t>
-  </si>
-  <si>
-    <t>12,13%</t>
-  </si>
-  <si>
-    <t>7,64%</t>
-  </si>
-  <si>
-    <t>17,84%</t>
-  </si>
-  <si>
-    <t>12,58%</t>
-  </si>
-  <si>
-    <t>6,36%</t>
-  </si>
-  <si>
-    <t>20,83%</t>
-  </si>
-  <si>
-    <t>8,66%</t>
-  </si>
-  <si>
-    <t>17,37%</t>
-  </si>
-  <si>
-    <t>Granada</t>
-  </si>
-  <si>
-    <t>48,65%</t>
-  </si>
-  <si>
-    <t>41,86%</t>
-  </si>
-  <si>
-    <t>55,01%</t>
-  </si>
-  <si>
-    <t>40,64%</t>
-  </si>
-  <si>
-    <t>32,97%</t>
-  </si>
-  <si>
-    <t>49,33%</t>
-  </si>
-  <si>
-    <t>45,62%</t>
-  </si>
-  <si>
-    <t>40,01%</t>
-  </si>
-  <si>
-    <t>51,07%</t>
-  </si>
-  <si>
-    <t>17,58%</t>
-  </si>
-  <si>
-    <t>12,89%</t>
-  </si>
-  <si>
-    <t>22,91%</t>
-  </si>
-  <si>
-    <t>16,55%</t>
-  </si>
-  <si>
-    <t>11,27%</t>
-  </si>
-  <si>
-    <t>24,26%</t>
-  </si>
-  <si>
-    <t>17,19%</t>
-  </si>
-  <si>
-    <t>13,39%</t>
-  </si>
-  <si>
-    <t>21,52%</t>
-  </si>
-  <si>
-    <t>14,0%</t>
-  </si>
-  <si>
-    <t>9,94%</t>
-  </si>
-  <si>
-    <t>19,73%</t>
-  </si>
-  <si>
-    <t>16,8%</t>
-  </si>
-  <si>
-    <t>10,66%</t>
-  </si>
-  <si>
-    <t>23,42%</t>
-  </si>
-  <si>
-    <t>15,06%</t>
-  </si>
-  <si>
-    <t>11,61%</t>
-  </si>
-  <si>
-    <t>19,24%</t>
-  </si>
-  <si>
-    <t>19,77%</t>
-  </si>
-  <si>
-    <t>14,78%</t>
-  </si>
-  <si>
-    <t>25,78%</t>
-  </si>
-  <si>
-    <t>26,01%</t>
-  </si>
-  <si>
-    <t>19,2%</t>
-  </si>
-  <si>
-    <t>34,26%</t>
-  </si>
-  <si>
-    <t>22,13%</t>
-  </si>
-  <si>
-    <t>18,15%</t>
-  </si>
-  <si>
-    <t>26,64%</t>
-  </si>
-  <si>
-    <t>Huelva</t>
-  </si>
-  <si>
-    <t>63,91%</t>
-  </si>
-  <si>
-    <t>54,41%</t>
-  </si>
-  <si>
-    <t>72,83%</t>
-  </si>
-  <si>
-    <t>61,97%</t>
-  </si>
-  <si>
-    <t>47,2%</t>
-  </si>
-  <si>
-    <t>74,09%</t>
-  </si>
-  <si>
-    <t>63,31%</t>
-  </si>
-  <si>
-    <t>55,15%</t>
-  </si>
-  <si>
-    <t>70,93%</t>
-  </si>
-  <si>
-    <t>8,65%</t>
-  </si>
-  <si>
-    <t>4,66%</t>
-  </si>
-  <si>
-    <t>15,41%</t>
-  </si>
-  <si>
-    <t>4,0%</t>
-  </si>
-  <si>
-    <t>0,0%</t>
-  </si>
-  <si>
-    <t>14,22%</t>
-  </si>
-  <si>
-    <t>7,2%</t>
-  </si>
-  <si>
-    <t>3,78%</t>
-  </si>
-  <si>
-    <t>11,94%</t>
-  </si>
-  <si>
-    <t>7,52%</t>
-  </si>
-  <si>
-    <t>3,06%</t>
-  </si>
-  <si>
-    <t>14,45%</t>
-  </si>
-  <si>
-    <t>14,07%</t>
-  </si>
-  <si>
-    <t>5,94%</t>
-  </si>
-  <si>
-    <t>27,03%</t>
-  </si>
-  <si>
-    <t>9,55%</t>
-  </si>
-  <si>
-    <t>5,72%</t>
-  </si>
-  <si>
-    <t>15,81%</t>
-  </si>
-  <si>
-    <t>19,93%</t>
-  </si>
-  <si>
-    <t>28,7%</t>
-  </si>
-  <si>
-    <t>19,96%</t>
-  </si>
-  <si>
-    <t>10,38%</t>
-  </si>
-  <si>
-    <t>32,85%</t>
-  </si>
-  <si>
-    <t>19,94%</t>
-  </si>
-  <si>
-    <t>14,3%</t>
-  </si>
-  <si>
-    <t>27,24%</t>
-  </si>
-  <si>
-    <t>Jaen</t>
-  </si>
-  <si>
-    <t>47,82%</t>
-  </si>
-  <si>
-    <t>39,01%</t>
-  </si>
-  <si>
-    <t>55,72%</t>
-  </si>
-  <si>
-    <t>25,45%</t>
-  </si>
-  <si>
-    <t>17,32%</t>
-  </si>
-  <si>
-    <t>35,77%</t>
-  </si>
-  <si>
-    <t>40,06%</t>
-  </si>
-  <si>
-    <t>33,84%</t>
-  </si>
-  <si>
-    <t>46,34%</t>
-  </si>
-  <si>
-    <t>21,44%</t>
-  </si>
-  <si>
-    <t>15,76%</t>
-  </si>
-  <si>
-    <t>23,72%</t>
-  </si>
-  <si>
-    <t>14,88%</t>
-  </si>
-  <si>
-    <t>35,03%</t>
-  </si>
-  <si>
-    <t>22,23%</t>
-  </si>
-  <si>
-    <t>17,25%</t>
-  </si>
-  <si>
-    <t>27,69%</t>
-  </si>
-  <si>
-    <t>14,24%</t>
-  </si>
-  <si>
-    <t>9,26%</t>
-  </si>
-  <si>
-    <t>20,32%</t>
-  </si>
-  <si>
-    <t>17,77%</t>
-  </si>
-  <si>
-    <t>10,04%</t>
-  </si>
-  <si>
-    <t>27,42%</t>
-  </si>
-  <si>
-    <t>15,46%</t>
-  </si>
-  <si>
-    <t>11,25%</t>
-  </si>
-  <si>
-    <t>20,92%</t>
-  </si>
-  <si>
-    <t>16,49%</t>
-  </si>
-  <si>
-    <t>11,32%</t>
-  </si>
-  <si>
-    <t>23,54%</t>
-  </si>
-  <si>
-    <t>33,07%</t>
-  </si>
-  <si>
-    <t>22,69%</t>
-  </si>
-  <si>
-    <t>44,49%</t>
-  </si>
-  <si>
-    <t>22,24%</t>
-  </si>
-  <si>
-    <t>17,35%</t>
-  </si>
-  <si>
-    <t>27,99%</t>
-  </si>
-  <si>
-    <t>Malaga</t>
-  </si>
-  <si>
-    <t>61,99%</t>
-  </si>
-  <si>
-    <t>56,83%</t>
-  </si>
-  <si>
-    <t>67,44%</t>
-  </si>
-  <si>
-    <t>49,78%</t>
-  </si>
-  <si>
-    <t>41,99%</t>
-  </si>
-  <si>
-    <t>57,0%</t>
-  </si>
-  <si>
-    <t>57,73%</t>
-  </si>
-  <si>
-    <t>53,41%</t>
-  </si>
-  <si>
-    <t>62,02%</t>
-  </si>
-  <si>
-    <t>11,4%</t>
-  </si>
-  <si>
-    <t>8,13%</t>
-  </si>
-  <si>
-    <t>17,3%</t>
-  </si>
-  <si>
-    <t>12,09%</t>
-  </si>
-  <si>
-    <t>24,11%</t>
-  </si>
-  <si>
-    <t>13,46%</t>
-  </si>
-  <si>
-    <t>10,59%</t>
-  </si>
-  <si>
-    <t>16,98%</t>
-  </si>
-  <si>
-    <t>10,07%</t>
-  </si>
-  <si>
-    <t>7,27%</t>
-  </si>
-  <si>
-    <t>13,62%</t>
-  </si>
-  <si>
-    <t>14,1%</t>
-  </si>
-  <si>
-    <t>9,27%</t>
-  </si>
-  <si>
-    <t>19,99%</t>
-  </si>
-  <si>
-    <t>8,87%</t>
-  </si>
-  <si>
-    <t>14,73%</t>
-  </si>
-  <si>
-    <t>16,53%</t>
-  </si>
-  <si>
-    <t>12,71%</t>
-  </si>
-  <si>
-    <t>20,85%</t>
-  </si>
-  <si>
-    <t>18,82%</t>
-  </si>
-  <si>
-    <t>13,29%</t>
-  </si>
-  <si>
-    <t>17,33%</t>
-  </si>
-  <si>
-    <t>14,28%</t>
-  </si>
-  <si>
-    <t>20,81%</t>
-  </si>
-  <si>
-    <t>Sevilla</t>
-  </si>
-  <si>
-    <t>65,85%</t>
-  </si>
-  <si>
-    <t>61,19%</t>
-  </si>
-  <si>
-    <t>69,97%</t>
-  </si>
-  <si>
-    <t>55,89%</t>
-  </si>
-  <si>
-    <t>48,88%</t>
-  </si>
-  <si>
-    <t>62,05%</t>
-  </si>
-  <si>
-    <t>62,47%</t>
-  </si>
-  <si>
-    <t>58,77%</t>
-  </si>
-  <si>
-    <t>66,12%</t>
-  </si>
-  <si>
-    <t>8,32%</t>
-  </si>
-  <si>
-    <t>6,02%</t>
-  </si>
-  <si>
-    <t>11,0%</t>
-  </si>
-  <si>
-    <t>11,3%</t>
-  </si>
-  <si>
-    <t>7,68%</t>
-  </si>
-  <si>
-    <t>15,8%</t>
-  </si>
-  <si>
-    <t>9,33%</t>
-  </si>
-  <si>
-    <t>7,19%</t>
-  </si>
-  <si>
-    <t>11,52%</t>
-  </si>
-  <si>
-    <t>8,49%</t>
-  </si>
-  <si>
-    <t>6,3%</t>
-  </si>
-  <si>
-    <t>11,36%</t>
-  </si>
-  <si>
-    <t>11,81%</t>
-  </si>
-  <si>
-    <t>8,05%</t>
-  </si>
-  <si>
-    <t>16,62%</t>
-  </si>
-  <si>
-    <t>9,62%</t>
-  </si>
-  <si>
-    <t>7,75%</t>
-  </si>
-  <si>
-    <t>12,27%</t>
-  </si>
-  <si>
-    <t>13,91%</t>
-  </si>
-  <si>
-    <t>21,29%</t>
-  </si>
-  <si>
-    <t>21,0%</t>
-  </si>
-  <si>
-    <t>16,37%</t>
-  </si>
-  <si>
-    <t>26,76%</t>
-  </si>
-  <si>
-    <t>18,58%</t>
-  </si>
-  <si>
-    <t>15,56%</t>
-  </si>
-  <si>
-    <t>21,58%</t>
-  </si>
-  <si>
-    <t>56,78%</t>
-  </si>
-  <si>
-    <t>54,45%</t>
-  </si>
-  <si>
-    <t>59,02%</t>
-  </si>
-  <si>
-    <t>46,9%</t>
-  </si>
-  <si>
-    <t>49,85%</t>
-  </si>
-  <si>
-    <t>53,32%</t>
-  </si>
-  <si>
-    <t>51,42%</t>
-  </si>
-  <si>
-    <t>13,53%</t>
-  </si>
-  <si>
-    <t>11,87%</t>
-  </si>
-  <si>
-    <t>15,04%</t>
-  </si>
-  <si>
-    <t>13,42%</t>
-  </si>
-  <si>
-    <t>17,94%</t>
-  </si>
-  <si>
-    <t>12,93%</t>
-  </si>
-  <si>
-    <t>15,54%</t>
-  </si>
-  <si>
-    <t>12,59%</t>
-  </si>
-  <si>
-    <t>11,14%</t>
-  </si>
-  <si>
-    <t>14,4%</t>
-  </si>
-  <si>
-    <t>15,27%</t>
-  </si>
-  <si>
-    <t>13,18%</t>
+    <t>14,84%</t>
   </si>
   <si>
     <t>17,1%</t>
   </si>
   <si>
-    <t>15,37%</t>
-  </si>
-  <si>
-    <t>19,03%</t>
+    <t>18,99%</t>
   </si>
   <si>
     <t>22,27%</t>
   </si>
   <si>
-    <t>19,65%</t>
-  </si>
-  <si>
-    <t>25,02%</t>
+    <t>19,72%</t>
+  </si>
+  <si>
+    <t>25,21%</t>
   </si>
   <si>
     <t>18,91%</t>
   </si>
   <si>
-    <t>17,46%</t>
+    <t>17,41%</t>
+  </si>
+  <si>
+    <t>20,3%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
@@ -1437,7 +1446,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FA3E0987-E38D-478A-B0C6-1E002C0D2956}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{90361F08-0CC7-44C3-8E8F-C77ED461D6FE}">
   <dimension ref="A1:Q49"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -2210,10 +2219,10 @@
         <v>112</v>
       </c>
       <c r="P16" s="7" t="s">
+        <v>71</v>
+      </c>
+      <c r="Q16" s="7" t="s">
         <v>113</v>
-      </c>
-      <c r="Q16" s="7" t="s">
-        <v>114</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -2228,13 +2237,13 @@
         <v>21317</v>
       </c>
       <c r="E17" s="7" t="s">
+        <v>114</v>
+      </c>
+      <c r="F17" s="7" t="s">
         <v>115</v>
       </c>
-      <c r="F17" s="7" t="s">
+      <c r="G17" s="7" t="s">
         <v>116</v>
-      </c>
-      <c r="G17" s="7" t="s">
-        <v>117</v>
       </c>
       <c r="H17" s="7">
         <v>12</v>
@@ -2243,13 +2252,13 @@
         <v>11895</v>
       </c>
       <c r="J17" s="7" t="s">
+        <v>117</v>
+      </c>
+      <c r="K17" s="7" t="s">
         <v>118</v>
       </c>
-      <c r="K17" s="7" t="s">
+      <c r="L17" s="7" t="s">
         <v>119</v>
-      </c>
-      <c r="L17" s="7" t="s">
-        <v>120</v>
       </c>
       <c r="M17" s="7">
         <v>32</v>
@@ -2258,13 +2267,13 @@
         <v>33213</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>104</v>
+        <v>35</v>
       </c>
       <c r="P17" s="7" t="s">
+        <v>120</v>
+      </c>
+      <c r="Q17" s="7" t="s">
         <v>121</v>
-      </c>
-      <c r="Q17" s="7" t="s">
-        <v>122</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -2320,7 +2329,7 @@
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="B19" s="5" t="s">
         <v>10</v>
@@ -2332,13 +2341,13 @@
         <v>108755</v>
       </c>
       <c r="E19" s="7" t="s">
+        <v>123</v>
+      </c>
+      <c r="F19" s="7" t="s">
         <v>124</v>
       </c>
-      <c r="F19" s="7" t="s">
+      <c r="G19" s="7" t="s">
         <v>125</v>
-      </c>
-      <c r="G19" s="7" t="s">
-        <v>126</v>
       </c>
       <c r="H19" s="7">
         <v>55</v>
@@ -2347,13 +2356,13 @@
         <v>55306</v>
       </c>
       <c r="J19" s="7" t="s">
+        <v>126</v>
+      </c>
+      <c r="K19" s="7" t="s">
         <v>127</v>
       </c>
-      <c r="K19" s="7" t="s">
+      <c r="L19" s="7" t="s">
         <v>128</v>
-      </c>
-      <c r="L19" s="7" t="s">
-        <v>129</v>
       </c>
       <c r="M19" s="7">
         <v>162</v>
@@ -2362,13 +2371,13 @@
         <v>164061</v>
       </c>
       <c r="O19" s="7" t="s">
+        <v>129</v>
+      </c>
+      <c r="P19" s="7" t="s">
         <v>130</v>
       </c>
-      <c r="P19" s="7" t="s">
+      <c r="Q19" s="7" t="s">
         <v>131</v>
-      </c>
-      <c r="Q19" s="7" t="s">
-        <v>132</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -2383,13 +2392,13 @@
         <v>39291</v>
       </c>
       <c r="E20" s="7" t="s">
+        <v>132</v>
+      </c>
+      <c r="F20" s="7" t="s">
         <v>133</v>
       </c>
-      <c r="F20" s="7" t="s">
+      <c r="G20" s="7" t="s">
         <v>134</v>
-      </c>
-      <c r="G20" s="7" t="s">
-        <v>135</v>
       </c>
       <c r="H20" s="7">
         <v>23</v>
@@ -2398,13 +2407,13 @@
         <v>22524</v>
       </c>
       <c r="J20" s="7" t="s">
+        <v>135</v>
+      </c>
+      <c r="K20" s="7" t="s">
         <v>136</v>
       </c>
-      <c r="K20" s="7" t="s">
+      <c r="L20" s="7" t="s">
         <v>137</v>
-      </c>
-      <c r="L20" s="7" t="s">
-        <v>138</v>
       </c>
       <c r="M20" s="7">
         <v>62</v>
@@ -2413,13 +2422,13 @@
         <v>61815</v>
       </c>
       <c r="O20" s="7" t="s">
+        <v>138</v>
+      </c>
+      <c r="P20" s="7" t="s">
         <v>139</v>
       </c>
-      <c r="P20" s="7" t="s">
+      <c r="Q20" s="7" t="s">
         <v>140</v>
-      </c>
-      <c r="Q20" s="7" t="s">
-        <v>141</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -2434,13 +2443,13 @@
         <v>31304</v>
       </c>
       <c r="E21" s="7" t="s">
+        <v>141</v>
+      </c>
+      <c r="F21" s="7" t="s">
         <v>142</v>
       </c>
-      <c r="F21" s="7" t="s">
+      <c r="G21" s="7" t="s">
         <v>143</v>
-      </c>
-      <c r="G21" s="7" t="s">
-        <v>144</v>
       </c>
       <c r="H21" s="7">
         <v>23</v>
@@ -2449,13 +2458,13 @@
         <v>22863</v>
       </c>
       <c r="J21" s="7" t="s">
+        <v>144</v>
+      </c>
+      <c r="K21" s="7" t="s">
         <v>145</v>
       </c>
-      <c r="K21" s="7" t="s">
+      <c r="L21" s="7" t="s">
         <v>146</v>
-      </c>
-      <c r="L21" s="7" t="s">
-        <v>147</v>
       </c>
       <c r="M21" s="7">
         <v>53</v>
@@ -2464,13 +2473,13 @@
         <v>54167</v>
       </c>
       <c r="O21" s="7" t="s">
+        <v>147</v>
+      </c>
+      <c r="P21" s="7" t="s">
         <v>148</v>
       </c>
-      <c r="P21" s="7" t="s">
+      <c r="Q21" s="7" t="s">
         <v>149</v>
-      </c>
-      <c r="Q21" s="7" t="s">
-        <v>150</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -2485,13 +2494,13 @@
         <v>44194</v>
       </c>
       <c r="E22" s="7" t="s">
+        <v>150</v>
+      </c>
+      <c r="F22" s="7" t="s">
         <v>151</v>
       </c>
-      <c r="F22" s="7" t="s">
+      <c r="G22" s="7" t="s">
         <v>152</v>
-      </c>
-      <c r="G22" s="7" t="s">
-        <v>153</v>
       </c>
       <c r="H22" s="7">
         <v>36</v>
@@ -2500,13 +2509,13 @@
         <v>35392</v>
       </c>
       <c r="J22" s="7" t="s">
+        <v>153</v>
+      </c>
+      <c r="K22" s="7" t="s">
         <v>154</v>
       </c>
-      <c r="K22" s="7" t="s">
+      <c r="L22" s="7" t="s">
         <v>155</v>
-      </c>
-      <c r="L22" s="7" t="s">
-        <v>156</v>
       </c>
       <c r="M22" s="7">
         <v>79</v>
@@ -2515,13 +2524,13 @@
         <v>79586</v>
       </c>
       <c r="O22" s="7" t="s">
+        <v>156</v>
+      </c>
+      <c r="P22" s="7" t="s">
         <v>157</v>
       </c>
-      <c r="P22" s="7" t="s">
+      <c r="Q22" s="7" t="s">
         <v>158</v>
-      </c>
-      <c r="Q22" s="7" t="s">
-        <v>159</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -2577,7 +2586,7 @@
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A24" s="1" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="B24" s="5" t="s">
         <v>10</v>
@@ -2589,13 +2598,13 @@
         <v>71688</v>
       </c>
       <c r="E24" s="7" t="s">
+        <v>160</v>
+      </c>
+      <c r="F24" s="7" t="s">
         <v>161</v>
       </c>
-      <c r="F24" s="7" t="s">
+      <c r="G24" s="7" t="s">
         <v>162</v>
-      </c>
-      <c r="G24" s="7" t="s">
-        <v>163</v>
       </c>
       <c r="H24" s="7">
         <v>28</v>
@@ -2604,13 +2613,13 @@
         <v>31251</v>
       </c>
       <c r="J24" s="7" t="s">
+        <v>163</v>
+      </c>
+      <c r="K24" s="7" t="s">
         <v>164</v>
       </c>
-      <c r="K24" s="7" t="s">
+      <c r="L24" s="7" t="s">
         <v>165</v>
-      </c>
-      <c r="L24" s="7" t="s">
-        <v>166</v>
       </c>
       <c r="M24" s="7">
         <v>99</v>
@@ -2619,13 +2628,13 @@
         <v>102939</v>
       </c>
       <c r="O24" s="7" t="s">
+        <v>166</v>
+      </c>
+      <c r="P24" s="7" t="s">
         <v>167</v>
       </c>
-      <c r="P24" s="7" t="s">
+      <c r="Q24" s="7" t="s">
         <v>168</v>
-      </c>
-      <c r="Q24" s="7" t="s">
-        <v>169</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -2640,13 +2649,13 @@
         <v>9698</v>
       </c>
       <c r="E25" s="7" t="s">
+        <v>169</v>
+      </c>
+      <c r="F25" s="7" t="s">
         <v>170</v>
       </c>
-      <c r="F25" s="7" t="s">
+      <c r="G25" s="7" t="s">
         <v>171</v>
-      </c>
-      <c r="G25" s="7" t="s">
-        <v>172</v>
       </c>
       <c r="H25" s="7">
         <v>2</v>
@@ -2655,13 +2664,13 @@
         <v>2015</v>
       </c>
       <c r="J25" s="7" t="s">
+        <v>172</v>
+      </c>
+      <c r="K25" s="7" t="s">
         <v>173</v>
       </c>
-      <c r="K25" s="7" t="s">
+      <c r="L25" s="7" t="s">
         <v>174</v>
-      </c>
-      <c r="L25" s="7" t="s">
-        <v>175</v>
       </c>
       <c r="M25" s="7">
         <v>12</v>
@@ -2670,13 +2679,13 @@
         <v>11713</v>
       </c>
       <c r="O25" s="7" t="s">
+        <v>175</v>
+      </c>
+      <c r="P25" s="7" t="s">
         <v>176</v>
       </c>
-      <c r="P25" s="7" t="s">
+      <c r="Q25" s="7" t="s">
         <v>177</v>
-      </c>
-      <c r="Q25" s="7" t="s">
-        <v>178</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -2691,13 +2700,13 @@
         <v>8436</v>
       </c>
       <c r="E26" s="7" t="s">
+        <v>178</v>
+      </c>
+      <c r="F26" s="7" t="s">
         <v>179</v>
       </c>
-      <c r="F26" s="7" t="s">
+      <c r="G26" s="7" t="s">
         <v>180</v>
-      </c>
-      <c r="G26" s="7" t="s">
-        <v>181</v>
       </c>
       <c r="H26" s="7">
         <v>7</v>
@@ -2706,13 +2715,13 @@
         <v>7093</v>
       </c>
       <c r="J26" s="7" t="s">
+        <v>181</v>
+      </c>
+      <c r="K26" s="7" t="s">
         <v>182</v>
       </c>
-      <c r="K26" s="7" t="s">
+      <c r="L26" s="7" t="s">
         <v>183</v>
-      </c>
-      <c r="L26" s="7" t="s">
-        <v>184</v>
       </c>
       <c r="M26" s="7">
         <v>14</v>
@@ -2721,13 +2730,13 @@
         <v>15529</v>
       </c>
       <c r="O26" s="7" t="s">
+        <v>184</v>
+      </c>
+      <c r="P26" s="7" t="s">
         <v>185</v>
       </c>
-      <c r="P26" s="7" t="s">
+      <c r="Q26" s="7" t="s">
         <v>186</v>
-      </c>
-      <c r="Q26" s="7" t="s">
-        <v>187</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -2742,10 +2751,10 @@
         <v>22355</v>
       </c>
       <c r="E27" s="7" t="s">
+        <v>187</v>
+      </c>
+      <c r="F27" s="7" t="s">
         <v>188</v>
-      </c>
-      <c r="F27" s="7" t="s">
-        <v>118</v>
       </c>
       <c r="G27" s="7" t="s">
         <v>189</v>
@@ -2903,7 +2912,7 @@
         <v>207</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>33</v>
+        <v>208</v>
       </c>
       <c r="H30" s="7">
         <v>19</v>
@@ -2912,13 +2921,13 @@
         <v>19643</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="M30" s="7">
         <v>51</v>
@@ -2927,13 +2936,13 @@
         <v>53097</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -2948,13 +2957,13 @@
         <v>22221</v>
       </c>
       <c r="E31" s="7" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="F31" s="7" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="G31" s="7" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="H31" s="7">
         <v>14</v>
@@ -2963,13 +2972,13 @@
         <v>14713</v>
       </c>
       <c r="J31" s="7" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="K31" s="7" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="L31" s="7" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="M31" s="7">
         <v>35</v>
@@ -2978,13 +2987,13 @@
         <v>36933</v>
       </c>
       <c r="O31" s="7" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="P31" s="7" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="Q31" s="7" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
@@ -2999,13 +3008,13 @@
         <v>25730</v>
       </c>
       <c r="E32" s="7" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="F32" s="7" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="G32" s="7" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="H32" s="7">
         <v>26</v>
@@ -3014,10 +3023,10 @@
         <v>27387</v>
       </c>
       <c r="J32" s="7" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="K32" s="7" t="s">
-        <v>227</v>
+        <v>86</v>
       </c>
       <c r="L32" s="7" t="s">
         <v>228</v>
@@ -3160,7 +3169,7 @@
         <v>243</v>
       </c>
       <c r="G35" s="7" t="s">
-        <v>187</v>
+        <v>244</v>
       </c>
       <c r="H35" s="7">
         <v>29</v>
@@ -3169,13 +3178,13 @@
         <v>31228</v>
       </c>
       <c r="J35" s="7" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="K35" s="7" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="L35" s="7" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="M35" s="7">
         <v>64</v>
@@ -3184,13 +3193,13 @@
         <v>69632</v>
       </c>
       <c r="O35" s="7" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="P35" s="7" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="Q35" s="7" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
     </row>
     <row r="36" spans="1:17" x14ac:dyDescent="0.3">
@@ -3205,13 +3214,13 @@
         <v>33919</v>
       </c>
       <c r="E36" s="7" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="F36" s="7" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="G36" s="7" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="H36" s="7">
         <v>24</v>
@@ -3220,13 +3229,13 @@
         <v>25457</v>
       </c>
       <c r="J36" s="7" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="K36" s="7" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="L36" s="7" t="s">
-        <v>255</v>
+        <v>119</v>
       </c>
       <c r="M36" s="7">
         <v>57</v>
@@ -3235,13 +3244,13 @@
         <v>59376</v>
       </c>
       <c r="O36" s="7" t="s">
-        <v>71</v>
+        <v>256</v>
       </c>
       <c r="P36" s="7" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="Q36" s="7" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.3">
@@ -3256,13 +3265,13 @@
         <v>55668</v>
       </c>
       <c r="E37" s="7" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="F37" s="7" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="G37" s="7" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="H37" s="7">
         <v>34</v>
@@ -3271,13 +3280,13 @@
         <v>33986</v>
       </c>
       <c r="J37" s="7" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="K37" s="7" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="L37" s="7" t="s">
-        <v>43</v>
+        <v>264</v>
       </c>
       <c r="M37" s="7">
         <v>87</v>
@@ -3286,13 +3295,13 @@
         <v>89654</v>
       </c>
       <c r="O37" s="7" t="s">
-        <v>263</v>
+        <v>265</v>
       </c>
       <c r="P37" s="7" t="s">
-        <v>264</v>
+        <v>266</v>
       </c>
       <c r="Q37" s="7" t="s">
-        <v>265</v>
+        <v>267</v>
       </c>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.3">
@@ -3348,7 +3357,7 @@
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A39" s="1" t="s">
-        <v>266</v>
+        <v>268</v>
       </c>
       <c r="B39" s="5" t="s">
         <v>10</v>
@@ -3360,13 +3369,13 @@
         <v>305736</v>
       </c>
       <c r="E39" s="7" t="s">
-        <v>267</v>
+        <v>269</v>
       </c>
       <c r="F39" s="7" t="s">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="G39" s="7" t="s">
-        <v>269</v>
+        <v>271</v>
       </c>
       <c r="H39" s="7">
         <v>125</v>
@@ -3375,13 +3384,13 @@
         <v>133557</v>
       </c>
       <c r="J39" s="7" t="s">
-        <v>270</v>
+        <v>272</v>
       </c>
       <c r="K39" s="7" t="s">
-        <v>271</v>
+        <v>273</v>
       </c>
       <c r="L39" s="7" t="s">
-        <v>272</v>
+        <v>274</v>
       </c>
       <c r="M39" s="7">
         <v>420</v>
@@ -3390,13 +3399,13 @@
         <v>439293</v>
       </c>
       <c r="O39" s="7" t="s">
-        <v>273</v>
+        <v>275</v>
       </c>
       <c r="P39" s="7" t="s">
-        <v>274</v>
+        <v>276</v>
       </c>
       <c r="Q39" s="7" t="s">
-        <v>275</v>
+        <v>277</v>
       </c>
     </row>
     <row r="40" spans="1:17" x14ac:dyDescent="0.3">
@@ -3411,13 +3420,13 @@
         <v>38640</v>
       </c>
       <c r="E40" s="7" t="s">
-        <v>276</v>
+        <v>278</v>
       </c>
       <c r="F40" s="7" t="s">
-        <v>277</v>
+        <v>279</v>
       </c>
       <c r="G40" s="7" t="s">
-        <v>278</v>
+        <v>280</v>
       </c>
       <c r="H40" s="7">
         <v>26</v>
@@ -3426,13 +3435,13 @@
         <v>27004</v>
       </c>
       <c r="J40" s="7" t="s">
-        <v>279</v>
+        <v>281</v>
       </c>
       <c r="K40" s="7" t="s">
-        <v>280</v>
+        <v>282</v>
       </c>
       <c r="L40" s="7" t="s">
-        <v>281</v>
+        <v>283</v>
       </c>
       <c r="M40" s="7">
         <v>67</v>
@@ -3441,13 +3450,13 @@
         <v>65644</v>
       </c>
       <c r="O40" s="7" t="s">
-        <v>282</v>
+        <v>284</v>
       </c>
       <c r="P40" s="7" t="s">
-        <v>283</v>
+        <v>285</v>
       </c>
       <c r="Q40" s="7" t="s">
-        <v>284</v>
+        <v>286</v>
       </c>
     </row>
     <row r="41" spans="1:17" x14ac:dyDescent="0.3">
@@ -3462,13 +3471,13 @@
         <v>39439</v>
       </c>
       <c r="E41" s="7" t="s">
-        <v>285</v>
+        <v>287</v>
       </c>
       <c r="F41" s="7" t="s">
-        <v>286</v>
+        <v>288</v>
       </c>
       <c r="G41" s="7" t="s">
-        <v>287</v>
+        <v>289</v>
       </c>
       <c r="H41" s="7">
         <v>28</v>
@@ -3477,13 +3486,13 @@
         <v>28224</v>
       </c>
       <c r="J41" s="7" t="s">
-        <v>288</v>
+        <v>290</v>
       </c>
       <c r="K41" s="7" t="s">
-        <v>289</v>
+        <v>291</v>
       </c>
       <c r="L41" s="7" t="s">
-        <v>290</v>
+        <v>292</v>
       </c>
       <c r="M41" s="7">
         <v>68</v>
@@ -3492,13 +3501,13 @@
         <v>67663</v>
       </c>
       <c r="O41" s="7" t="s">
-        <v>291</v>
+        <v>293</v>
       </c>
       <c r="P41" s="7" t="s">
-        <v>292</v>
+        <v>294</v>
       </c>
       <c r="Q41" s="7" t="s">
-        <v>293</v>
+        <v>290</v>
       </c>
     </row>
     <row r="42" spans="1:17" x14ac:dyDescent="0.3">
@@ -3513,10 +3522,10 @@
         <v>80460</v>
       </c>
       <c r="E42" s="7" t="s">
-        <v>263</v>
+        <v>265</v>
       </c>
       <c r="F42" s="7" t="s">
-        <v>294</v>
+        <v>141</v>
       </c>
       <c r="G42" s="7" t="s">
         <v>295</v>
@@ -3635,10 +3644,10 @@
         <v>305</v>
       </c>
       <c r="K44" s="7" t="s">
-        <v>59</v>
+        <v>306</v>
       </c>
       <c r="L44" s="7" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="M44" s="7">
         <v>1490</v>
@@ -3647,13 +3656,13 @@
         <v>1562579</v>
       </c>
       <c r="O44" s="7" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="P44" s="7" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="Q44" s="7" t="s">
-        <v>168</v>
+        <v>310</v>
       </c>
     </row>
     <row r="45" spans="1:17" x14ac:dyDescent="0.3">
@@ -3668,13 +3677,13 @@
         <v>257670</v>
       </c>
       <c r="E45" s="7" t="s">
-        <v>309</v>
+        <v>311</v>
       </c>
       <c r="F45" s="7" t="s">
-        <v>310</v>
+        <v>312</v>
       </c>
       <c r="G45" s="7" t="s">
-        <v>311</v>
+        <v>313</v>
       </c>
       <c r="H45" s="7">
         <v>152</v>
@@ -3683,13 +3692,13 @@
         <v>159662</v>
       </c>
       <c r="J45" s="7" t="s">
-        <v>300</v>
+        <v>314</v>
       </c>
       <c r="K45" s="7" t="s">
-        <v>312</v>
+        <v>315</v>
       </c>
       <c r="L45" s="7" t="s">
-        <v>313</v>
+        <v>316</v>
       </c>
       <c r="M45" s="7">
         <v>401</v>
@@ -3698,13 +3707,13 @@
         <v>417332</v>
       </c>
       <c r="O45" s="7" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="P45" s="7" t="s">
-        <v>314</v>
+        <v>317</v>
       </c>
       <c r="Q45" s="7" t="s">
-        <v>315</v>
+        <v>70</v>
       </c>
     </row>
     <row r="46" spans="1:17" x14ac:dyDescent="0.3">
@@ -3719,13 +3728,13 @@
         <v>239683</v>
       </c>
       <c r="E46" s="7" t="s">
-        <v>316</v>
+        <v>28</v>
       </c>
       <c r="F46" s="7" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="G46" s="7" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="H46" s="7">
         <v>152</v>
@@ -3734,13 +3743,13 @@
         <v>156701</v>
       </c>
       <c r="J46" s="7" t="s">
-        <v>319</v>
+        <v>244</v>
       </c>
       <c r="K46" s="7" t="s">
         <v>320</v>
       </c>
       <c r="L46" s="7" t="s">
-        <v>133</v>
+        <v>321</v>
       </c>
       <c r="M46" s="7">
         <v>382</v>
@@ -3749,13 +3758,13 @@
         <v>396384</v>
       </c>
       <c r="O46" s="7" t="s">
-        <v>309</v>
+        <v>311</v>
       </c>
       <c r="P46" s="7" t="s">
-        <v>293</v>
+        <v>322</v>
       </c>
       <c r="Q46" s="7" t="s">
-        <v>106</v>
+        <v>323</v>
       </c>
     </row>
     <row r="47" spans="1:17" x14ac:dyDescent="0.3">
@@ -3770,13 +3779,13 @@
         <v>325725</v>
       </c>
       <c r="E47" s="7" t="s">
-        <v>321</v>
+        <v>324</v>
       </c>
       <c r="F47" s="7" t="s">
-        <v>322</v>
+        <v>85</v>
       </c>
       <c r="G47" s="7" t="s">
-        <v>323</v>
+        <v>325</v>
       </c>
       <c r="H47" s="7">
         <v>224</v>
@@ -3785,13 +3794,13 @@
         <v>228576</v>
       </c>
       <c r="J47" s="7" t="s">
-        <v>324</v>
+        <v>326</v>
       </c>
       <c r="K47" s="7" t="s">
-        <v>325</v>
+        <v>327</v>
       </c>
       <c r="L47" s="7" t="s">
-        <v>326</v>
+        <v>328</v>
       </c>
       <c r="M47" s="7">
         <v>533</v>
@@ -3800,13 +3809,13 @@
         <v>554301</v>
       </c>
       <c r="O47" s="7" t="s">
-        <v>327</v>
+        <v>329</v>
       </c>
       <c r="P47" s="7" t="s">
-        <v>328</v>
+        <v>330</v>
       </c>
       <c r="Q47" s="7" t="s">
-        <v>114</v>
+        <v>331</v>
       </c>
     </row>
     <row r="48" spans="1:17" x14ac:dyDescent="0.3">
@@ -3818,7 +3827,7 @@
         <v>1824</v>
       </c>
       <c r="D48" s="7">
-        <v>1904358</v>
+        <v>1904359</v>
       </c>
       <c r="E48" s="7" t="s">
         <v>50</v>
@@ -3862,7 +3871,7 @@
     </row>
     <row r="49" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
-        <v>329</v>
+        <v>332</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/P6512-Provincia-trans_orig.xlsx
+++ b/data/trans_orig/P6512-Provincia-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{467DA9E6-85C6-45CE-877F-0CA0FCE9FD3C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{8C4B8970-547F-491F-BB2A-5D70B5917BF3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{70A42ED2-1263-4D1D-93B4-80AAE8FC977C}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{44258AEE-46E7-44F0-A1B5-7E4EA4DD5A88}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="479" uniqueCount="333">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="479" uniqueCount="332">
   <si>
     <t>Población según el uso de ordenadores durante las tareas de su trabajo en 2007 (Tasa respuesta: 43,1%)</t>
   </si>
@@ -74,28 +74,28 @@
     <t>44,84%</t>
   </si>
   <si>
-    <t>36,71%</t>
-  </si>
-  <si>
-    <t>52,68%</t>
+    <t>37,25%</t>
+  </si>
+  <si>
+    <t>52,5%</t>
   </si>
   <si>
     <t>34,94%</t>
   </si>
   <si>
-    <t>26,28%</t>
-  </si>
-  <si>
-    <t>45,09%</t>
+    <t>25,78%</t>
+  </si>
+  <si>
+    <t>45,31%</t>
   </si>
   <si>
     <t>40,84%</t>
   </si>
   <si>
-    <t>35,15%</t>
-  </si>
-  <si>
-    <t>46,73%</t>
+    <t>34,96%</t>
+  </si>
+  <si>
+    <t>47,39%</t>
   </si>
   <si>
     <t>Algunas veces</t>
@@ -104,934 +104,931 @@
     <t>16,1%</t>
   </si>
   <si>
+    <t>10,96%</t>
+  </si>
+  <si>
+    <t>22,71%</t>
+  </si>
+  <si>
+    <t>18,37%</t>
+  </si>
+  <si>
+    <t>11,6%</t>
+  </si>
+  <si>
+    <t>26,46%</t>
+  </si>
+  <si>
+    <t>17,01%</t>
+  </si>
+  <si>
+    <t>12,69%</t>
+  </si>
+  <si>
+    <t>22,28%</t>
+  </si>
+  <si>
+    <t>Muchas veces</t>
+  </si>
+  <si>
+    <t>21,51%</t>
+  </si>
+  <si>
+    <t>15,09%</t>
+  </si>
+  <si>
+    <t>28,32%</t>
+  </si>
+  <si>
+    <t>18,8%</t>
+  </si>
+  <si>
+    <t>11,76%</t>
+  </si>
+  <si>
+    <t>27,32%</t>
+  </si>
+  <si>
+    <t>20,41%</t>
+  </si>
+  <si>
+    <t>15,65%</t>
+  </si>
+  <si>
+    <t>25,39%</t>
+  </si>
+  <si>
+    <t>Siempre</t>
+  </si>
+  <si>
+    <t>17,55%</t>
+  </si>
+  <si>
+    <t>12,02%</t>
+  </si>
+  <si>
+    <t>24,15%</t>
+  </si>
+  <si>
+    <t>27,9%</t>
+  </si>
+  <si>
+    <t>20,13%</t>
+  </si>
+  <si>
+    <t>38,11%</t>
+  </si>
+  <si>
+    <t>21,73%</t>
+  </si>
+  <si>
+    <t>17,07%</t>
+  </si>
+  <si>
+    <t>27,11%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>Cadiz</t>
+  </si>
+  <si>
+    <t>51,37%</t>
+  </si>
+  <si>
+    <t>45,35%</t>
+  </si>
+  <si>
+    <t>57,69%</t>
+  </si>
+  <si>
+    <t>44,72%</t>
+  </si>
+  <si>
+    <t>36,55%</t>
+  </si>
+  <si>
+    <t>54,31%</t>
+  </si>
+  <si>
+    <t>49,2%</t>
+  </si>
+  <si>
+    <t>44,17%</t>
+  </si>
+  <si>
+    <t>54,52%</t>
+  </si>
+  <si>
+    <t>15,55%</t>
+  </si>
+  <si>
+    <t>11,54%</t>
+  </si>
+  <si>
+    <t>20,87%</t>
+  </si>
+  <si>
+    <t>16,69%</t>
+  </si>
+  <si>
+    <t>11,0%</t>
+  </si>
+  <si>
+    <t>23,95%</t>
+  </si>
+  <si>
+    <t>15,92%</t>
+  </si>
+  <si>
+    <t>12,3%</t>
+  </si>
+  <si>
+    <t>19,74%</t>
+  </si>
+  <si>
+    <t>15,72%</t>
+  </si>
+  <si>
+    <t>11,58%</t>
+  </si>
+  <si>
+    <t>20,71%</t>
+  </si>
+  <si>
+    <t>16,88%</t>
+  </si>
+  <si>
     <t>11,2%</t>
   </si>
   <si>
-    <t>22,56%</t>
-  </si>
-  <si>
-    <t>18,37%</t>
-  </si>
-  <si>
-    <t>10,97%</t>
-  </si>
-  <si>
-    <t>26,98%</t>
-  </si>
-  <si>
-    <t>17,01%</t>
+    <t>24,02%</t>
+  </si>
+  <si>
+    <t>12,63%</t>
+  </si>
+  <si>
+    <t>17,36%</t>
+  </si>
+  <si>
+    <t>12,85%</t>
+  </si>
+  <si>
+    <t>22,65%</t>
+  </si>
+  <si>
+    <t>21,72%</t>
+  </si>
+  <si>
+    <t>15,2%</t>
+  </si>
+  <si>
+    <t>28,98%</t>
+  </si>
+  <si>
+    <t>18,78%</t>
+  </si>
+  <si>
+    <t>14,97%</t>
+  </si>
+  <si>
+    <t>22,78%</t>
+  </si>
+  <si>
+    <t>Cordoba</t>
+  </si>
+  <si>
+    <t>56,12%</t>
+  </si>
+  <si>
+    <t>49,08%</t>
+  </si>
+  <si>
+    <t>64,04%</t>
+  </si>
+  <si>
+    <t>55,63%</t>
+  </si>
+  <si>
+    <t>44,8%</t>
+  </si>
+  <si>
+    <t>64,64%</t>
+  </si>
+  <si>
+    <t>55,95%</t>
+  </si>
+  <si>
+    <t>49,78%</t>
+  </si>
+  <si>
+    <t>62,4%</t>
+  </si>
+  <si>
+    <t>16,79%</t>
+  </si>
+  <si>
+    <t>11,49%</t>
+  </si>
+  <si>
+    <t>23,45%</t>
+  </si>
+  <si>
+    <t>15,7%</t>
+  </si>
+  <si>
+    <t>9,51%</t>
+  </si>
+  <si>
+    <t>23,31%</t>
+  </si>
+  <si>
+    <t>16,41%</t>
+  </si>
+  <si>
+    <t>21,4%</t>
+  </si>
+  <si>
+    <t>14,95%</t>
+  </si>
+  <si>
+    <t>10,29%</t>
+  </si>
+  <si>
+    <t>21,11%</t>
+  </si>
+  <si>
+    <t>16,09%</t>
+  </si>
+  <si>
+    <t>9,53%</t>
+  </si>
+  <si>
+    <t>24,72%</t>
+  </si>
+  <si>
+    <t>15,35%</t>
+  </si>
+  <si>
+    <t>20,34%</t>
+  </si>
+  <si>
+    <t>12,13%</t>
+  </si>
+  <si>
+    <t>7,68%</t>
+  </si>
+  <si>
+    <t>17,88%</t>
+  </si>
+  <si>
+    <t>12,58%</t>
+  </si>
+  <si>
+    <t>7,15%</t>
+  </si>
+  <si>
+    <t>20,57%</t>
+  </si>
+  <si>
+    <t>12,29%</t>
+  </si>
+  <si>
+    <t>8,68%</t>
+  </si>
+  <si>
+    <t>17,1%</t>
+  </si>
+  <si>
+    <t>Granada</t>
+  </si>
+  <si>
+    <t>48,65%</t>
+  </si>
+  <si>
+    <t>41,72%</t>
+  </si>
+  <si>
+    <t>55,72%</t>
+  </si>
+  <si>
+    <t>40,64%</t>
+  </si>
+  <si>
+    <t>32,67%</t>
+  </si>
+  <si>
+    <t>49,03%</t>
+  </si>
+  <si>
+    <t>45,62%</t>
+  </si>
+  <si>
+    <t>40,46%</t>
+  </si>
+  <si>
+    <t>51,21%</t>
+  </si>
+  <si>
+    <t>17,58%</t>
+  </si>
+  <si>
+    <t>13,0%</t>
+  </si>
+  <si>
+    <t>23,75%</t>
+  </si>
+  <si>
+    <t>16,55%</t>
+  </si>
+  <si>
+    <t>11,04%</t>
+  </si>
+  <si>
+    <t>23,18%</t>
+  </si>
+  <si>
+    <t>17,19%</t>
+  </si>
+  <si>
+    <t>13,46%</t>
+  </si>
+  <si>
+    <t>21,16%</t>
+  </si>
+  <si>
+    <t>14,0%</t>
+  </si>
+  <si>
+    <t>10,1%</t>
+  </si>
+  <si>
+    <t>20,47%</t>
+  </si>
+  <si>
+    <t>16,8%</t>
+  </si>
+  <si>
+    <t>11,25%</t>
+  </si>
+  <si>
+    <t>23,54%</t>
+  </si>
+  <si>
+    <t>15,06%</t>
+  </si>
+  <si>
+    <t>11,67%</t>
+  </si>
+  <si>
+    <t>19,03%</t>
+  </si>
+  <si>
+    <t>19,77%</t>
+  </si>
+  <si>
+    <t>14,61%</t>
+  </si>
+  <si>
+    <t>25,94%</t>
+  </si>
+  <si>
+    <t>26,01%</t>
+  </si>
+  <si>
+    <t>18,93%</t>
+  </si>
+  <si>
+    <t>33,57%</t>
+  </si>
+  <si>
+    <t>22,13%</t>
+  </si>
+  <si>
+    <t>17,97%</t>
+  </si>
+  <si>
+    <t>26,83%</t>
+  </si>
+  <si>
+    <t>Huelva</t>
+  </si>
+  <si>
+    <t>63,91%</t>
+  </si>
+  <si>
+    <t>55,06%</t>
+  </si>
+  <si>
+    <t>72,69%</t>
+  </si>
+  <si>
+    <t>61,97%</t>
+  </si>
+  <si>
+    <t>47,7%</t>
+  </si>
+  <si>
+    <t>74,52%</t>
+  </si>
+  <si>
+    <t>63,31%</t>
+  </si>
+  <si>
+    <t>55,0%</t>
+  </si>
+  <si>
+    <t>70,81%</t>
+  </si>
+  <si>
+    <t>8,65%</t>
+  </si>
+  <si>
+    <t>4,03%</t>
+  </si>
+  <si>
+    <t>14,52%</t>
+  </si>
+  <si>
+    <t>4,0%</t>
+  </si>
+  <si>
+    <t>0,0%</t>
+  </si>
+  <si>
+    <t>14,08%</t>
+  </si>
+  <si>
+    <t>7,2%</t>
+  </si>
+  <si>
+    <t>3,61%</t>
+  </si>
+  <si>
+    <t>12,14%</t>
+  </si>
+  <si>
+    <t>7,52%</t>
+  </si>
+  <si>
+    <t>3,25%</t>
+  </si>
+  <si>
+    <t>15,74%</t>
+  </si>
+  <si>
+    <t>14,07%</t>
+  </si>
+  <si>
+    <t>6,03%</t>
+  </si>
+  <si>
+    <t>25,29%</t>
+  </si>
+  <si>
+    <t>9,55%</t>
+  </si>
+  <si>
+    <t>5,19%</t>
+  </si>
+  <si>
+    <t>15,11%</t>
+  </si>
+  <si>
+    <t>19,93%</t>
+  </si>
+  <si>
+    <t>13,15%</t>
+  </si>
+  <si>
+    <t>28,12%</t>
+  </si>
+  <si>
+    <t>19,96%</t>
+  </si>
+  <si>
+    <t>10,11%</t>
+  </si>
+  <si>
+    <t>32,54%</t>
+  </si>
+  <si>
+    <t>19,94%</t>
+  </si>
+  <si>
+    <t>14,39%</t>
+  </si>
+  <si>
+    <t>26,76%</t>
+  </si>
+  <si>
+    <t>Jaen</t>
+  </si>
+  <si>
+    <t>47,82%</t>
+  </si>
+  <si>
+    <t>39,68%</t>
+  </si>
+  <si>
+    <t>55,67%</t>
+  </si>
+  <si>
+    <t>25,45%</t>
+  </si>
+  <si>
+    <t>16,6%</t>
+  </si>
+  <si>
+    <t>36,01%</t>
+  </si>
+  <si>
+    <t>40,06%</t>
+  </si>
+  <si>
+    <t>33,85%</t>
+  </si>
+  <si>
+    <t>46,54%</t>
+  </si>
+  <si>
+    <t>21,44%</t>
+  </si>
+  <si>
+    <t>15,78%</t>
+  </si>
+  <si>
+    <t>29,3%</t>
+  </si>
+  <si>
+    <t>23,72%</t>
+  </si>
+  <si>
+    <t>15,53%</t>
+  </si>
+  <si>
+    <t>33,02%</t>
+  </si>
+  <si>
+    <t>22,23%</t>
+  </si>
+  <si>
+    <t>17,32%</t>
+  </si>
+  <si>
+    <t>27,89%</t>
+  </si>
+  <si>
+    <t>14,24%</t>
+  </si>
+  <si>
+    <t>9,32%</t>
+  </si>
+  <si>
+    <t>21,36%</t>
+  </si>
+  <si>
+    <t>17,77%</t>
+  </si>
+  <si>
+    <t>9,59%</t>
+  </si>
+  <si>
+    <t>27,66%</t>
+  </si>
+  <si>
+    <t>15,46%</t>
+  </si>
+  <si>
+    <t>10,91%</t>
+  </si>
+  <si>
+    <t>20,44%</t>
+  </si>
+  <si>
+    <t>16,49%</t>
+  </si>
+  <si>
+    <t>11,28%</t>
+  </si>
+  <si>
+    <t>23,66%</t>
+  </si>
+  <si>
+    <t>33,07%</t>
+  </si>
+  <si>
+    <t>23,65%</t>
+  </si>
+  <si>
+    <t>43,72%</t>
+  </si>
+  <si>
+    <t>22,24%</t>
+  </si>
+  <si>
+    <t>17,51%</t>
+  </si>
+  <si>
+    <t>28,46%</t>
+  </si>
+  <si>
+    <t>Malaga</t>
+  </si>
+  <si>
+    <t>61,99%</t>
+  </si>
+  <si>
+    <t>56,61%</t>
+  </si>
+  <si>
+    <t>67,8%</t>
+  </si>
+  <si>
+    <t>41,14%</t>
+  </si>
+  <si>
+    <t>56,82%</t>
+  </si>
+  <si>
+    <t>57,73%</t>
+  </si>
+  <si>
+    <t>52,97%</t>
+  </si>
+  <si>
+    <t>61,92%</t>
+  </si>
+  <si>
+    <t>11,4%</t>
+  </si>
+  <si>
+    <t>8,01%</t>
+  </si>
+  <si>
+    <t>15,37%</t>
+  </si>
+  <si>
+    <t>17,3%</t>
+  </si>
+  <si>
+    <t>12,39%</t>
+  </si>
+  <si>
+    <t>23,41%</t>
+  </si>
+  <si>
+    <t>10,28%</t>
+  </si>
+  <si>
+    <t>17,06%</t>
+  </si>
+  <si>
+    <t>10,07%</t>
+  </si>
+  <si>
+    <t>6,62%</t>
+  </si>
+  <si>
+    <t>13,44%</t>
+  </si>
+  <si>
+    <t>14,1%</t>
+  </si>
+  <si>
+    <t>9,15%</t>
+  </si>
+  <si>
+    <t>20,49%</t>
+  </si>
+  <si>
+    <t>11,48%</t>
+  </si>
+  <si>
+    <t>8,91%</t>
+  </si>
+  <si>
+    <t>14,45%</t>
+  </si>
+  <si>
+    <t>16,53%</t>
+  </si>
+  <si>
+    <t>21,07%</t>
+  </si>
+  <si>
+    <t>18,82%</t>
+  </si>
+  <si>
+    <t>13,82%</t>
+  </si>
+  <si>
+    <t>25,83%</t>
+  </si>
+  <si>
+    <t>17,33%</t>
+  </si>
+  <si>
+    <t>14,35%</t>
+  </si>
+  <si>
+    <t>21,21%</t>
+  </si>
+  <si>
+    <t>Sevilla</t>
+  </si>
+  <si>
+    <t>65,85%</t>
+  </si>
+  <si>
+    <t>61,13%</t>
+  </si>
+  <si>
+    <t>70,66%</t>
+  </si>
+  <si>
+    <t>55,89%</t>
+  </si>
+  <si>
+    <t>49,8%</t>
+  </si>
+  <si>
+    <t>62,8%</t>
+  </si>
+  <si>
+    <t>62,47%</t>
+  </si>
+  <si>
+    <t>58,6%</t>
+  </si>
+  <si>
+    <t>66,08%</t>
+  </si>
+  <si>
+    <t>8,32%</t>
+  </si>
+  <si>
+    <t>6,22%</t>
+  </si>
+  <si>
+    <t>11,31%</t>
+  </si>
+  <si>
+    <t>11,3%</t>
+  </si>
+  <si>
+    <t>7,61%</t>
+  </si>
+  <si>
+    <t>15,75%</t>
+  </si>
+  <si>
+    <t>9,33%</t>
+  </si>
+  <si>
+    <t>7,3%</t>
+  </si>
+  <si>
+    <t>11,46%</t>
+  </si>
+  <si>
+    <t>8,49%</t>
+  </si>
+  <si>
+    <t>6,23%</t>
+  </si>
+  <si>
+    <t>11,71%</t>
+  </si>
+  <si>
+    <t>11,81%</t>
+  </si>
+  <si>
+    <t>8,08%</t>
+  </si>
+  <si>
+    <t>16,24%</t>
+  </si>
+  <si>
+    <t>9,62%</t>
+  </si>
+  <si>
+    <t>7,54%</t>
+  </si>
+  <si>
+    <t>12,12%</t>
+  </si>
+  <si>
+    <t>14,18%</t>
+  </si>
+  <si>
+    <t>21,61%</t>
+  </si>
+  <si>
+    <t>21,0%</t>
+  </si>
+  <si>
+    <t>15,95%</t>
+  </si>
+  <si>
+    <t>26,5%</t>
+  </si>
+  <si>
+    <t>18,58%</t>
+  </si>
+  <si>
+    <t>21,6%</t>
+  </si>
+  <si>
+    <t>56,78%</t>
+  </si>
+  <si>
+    <t>54,51%</t>
+  </si>
+  <si>
+    <t>59,0%</t>
+  </si>
+  <si>
+    <t>46,9%</t>
+  </si>
+  <si>
+    <t>50,04%</t>
+  </si>
+  <si>
+    <t>53,32%</t>
+  </si>
+  <si>
+    <t>51,43%</t>
+  </si>
+  <si>
+    <t>55,31%</t>
+  </si>
+  <si>
+    <t>13,53%</t>
+  </si>
+  <si>
+    <t>12,01%</t>
+  </si>
+  <si>
+    <t>15,16%</t>
+  </si>
+  <si>
+    <t>15,56%</t>
+  </si>
+  <si>
+    <t>13,5%</t>
+  </si>
+  <si>
+    <t>17,94%</t>
+  </si>
+  <si>
+    <t>12,89%</t>
+  </si>
+  <si>
+    <t>15,57%</t>
   </si>
   <si>
     <t>12,59%</t>
   </si>
   <si>
-    <t>21,9%</t>
-  </si>
-  <si>
-    <t>Muchas veces</t>
-  </si>
-  <si>
-    <t>21,51%</t>
-  </si>
-  <si>
-    <t>15,0%</t>
-  </si>
-  <si>
-    <t>28,49%</t>
-  </si>
-  <si>
-    <t>18,8%</t>
-  </si>
-  <si>
-    <t>12,29%</t>
-  </si>
-  <si>
-    <t>27,26%</t>
-  </si>
-  <si>
-    <t>20,41%</t>
-  </si>
-  <si>
-    <t>16,17%</t>
-  </si>
-  <si>
-    <t>25,65%</t>
-  </si>
-  <si>
-    <t>Siempre</t>
-  </si>
-  <si>
-    <t>17,55%</t>
-  </si>
-  <si>
-    <t>11,89%</t>
-  </si>
-  <si>
-    <t>24,59%</t>
-  </si>
-  <si>
-    <t>27,9%</t>
-  </si>
-  <si>
-    <t>19,79%</t>
-  </si>
-  <si>
-    <t>37,45%</t>
-  </si>
-  <si>
-    <t>21,73%</t>
-  </si>
-  <si>
-    <t>16,97%</t>
-  </si>
-  <si>
-    <t>26,74%</t>
-  </si>
-  <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>Cadiz</t>
-  </si>
-  <si>
-    <t>51,37%</t>
-  </si>
-  <si>
-    <t>44,37%</t>
-  </si>
-  <si>
-    <t>57,35%</t>
-  </si>
-  <si>
-    <t>44,72%</t>
-  </si>
-  <si>
-    <t>35,66%</t>
-  </si>
-  <si>
-    <t>53,02%</t>
-  </si>
-  <si>
-    <t>49,2%</t>
-  </si>
-  <si>
-    <t>44,12%</t>
-  </si>
-  <si>
-    <t>54,06%</t>
-  </si>
-  <si>
-    <t>15,55%</t>
-  </si>
-  <si>
-    <t>11,59%</t>
-  </si>
-  <si>
-    <t>21,41%</t>
-  </si>
-  <si>
-    <t>16,69%</t>
-  </si>
-  <si>
-    <t>10,74%</t>
-  </si>
-  <si>
-    <t>24,5%</t>
-  </si>
-  <si>
-    <t>15,92%</t>
-  </si>
-  <si>
-    <t>12,34%</t>
-  </si>
-  <si>
-    <t>19,8%</t>
-  </si>
-  <si>
-    <t>15,72%</t>
-  </si>
-  <si>
-    <t>11,57%</t>
-  </si>
-  <si>
-    <t>20,5%</t>
-  </si>
-  <si>
-    <t>16,88%</t>
-  </si>
-  <si>
-    <t>10,54%</t>
-  </si>
-  <si>
-    <t>23,62%</t>
-  </si>
-  <si>
-    <t>12,33%</t>
-  </si>
-  <si>
-    <t>20,21%</t>
-  </si>
-  <si>
-    <t>17,36%</t>
-  </si>
-  <si>
-    <t>12,64%</t>
-  </si>
-  <si>
-    <t>23,12%</t>
-  </si>
-  <si>
-    <t>21,72%</t>
-  </si>
-  <si>
-    <t>15,4%</t>
-  </si>
-  <si>
-    <t>29,52%</t>
-  </si>
-  <si>
-    <t>18,78%</t>
-  </si>
-  <si>
-    <t>15,36%</t>
-  </si>
-  <si>
-    <t>23,32%</t>
-  </si>
-  <si>
-    <t>Cordoba</t>
-  </si>
-  <si>
-    <t>56,12%</t>
-  </si>
-  <si>
-    <t>48,56%</t>
-  </si>
-  <si>
-    <t>63,75%</t>
-  </si>
-  <si>
-    <t>55,63%</t>
-  </si>
-  <si>
-    <t>45,48%</t>
-  </si>
-  <si>
-    <t>65,56%</t>
-  </si>
-  <si>
-    <t>55,95%</t>
-  </si>
-  <si>
-    <t>49,79%</t>
-  </si>
-  <si>
-    <t>62,39%</t>
-  </si>
-  <si>
-    <t>16,79%</t>
-  </si>
-  <si>
-    <t>11,6%</t>
-  </si>
-  <si>
-    <t>22,76%</t>
-  </si>
-  <si>
-    <t>15,7%</t>
-  </si>
-  <si>
-    <t>9,3%</t>
-  </si>
-  <si>
-    <t>23,94%</t>
-  </si>
-  <si>
-    <t>16,41%</t>
-  </si>
-  <si>
-    <t>12,02%</t>
-  </si>
-  <si>
-    <t>21,62%</t>
-  </si>
-  <si>
-    <t>14,95%</t>
-  </si>
-  <si>
-    <t>10,25%</t>
-  </si>
-  <si>
-    <t>21,05%</t>
-  </si>
-  <si>
-    <t>16,09%</t>
-  </si>
-  <si>
-    <t>9,74%</t>
-  </si>
-  <si>
-    <t>24,96%</t>
-  </si>
-  <si>
-    <t>15,35%</t>
-  </si>
-  <si>
-    <t>20,17%</t>
-  </si>
-  <si>
-    <t>12,13%</t>
-  </si>
-  <si>
-    <t>7,68%</t>
-  </si>
-  <si>
-    <t>17,4%</t>
-  </si>
-  <si>
-    <t>12,58%</t>
-  </si>
-  <si>
-    <t>6,41%</t>
-  </si>
-  <si>
-    <t>20,14%</t>
-  </si>
-  <si>
-    <t>8,4%</t>
-  </si>
-  <si>
-    <t>16,85%</t>
-  </si>
-  <si>
-    <t>Granada</t>
-  </si>
-  <si>
-    <t>48,65%</t>
-  </si>
-  <si>
-    <t>41,69%</t>
-  </si>
-  <si>
-    <t>55,46%</t>
-  </si>
-  <si>
-    <t>40,64%</t>
-  </si>
-  <si>
-    <t>32,2%</t>
-  </si>
-  <si>
-    <t>48,29%</t>
-  </si>
-  <si>
-    <t>45,62%</t>
-  </si>
-  <si>
-    <t>40,35%</t>
-  </si>
-  <si>
-    <t>50,92%</t>
-  </si>
-  <si>
-    <t>17,58%</t>
-  </si>
-  <si>
-    <t>12,82%</t>
-  </si>
-  <si>
-    <t>23,29%</t>
-  </si>
-  <si>
-    <t>16,55%</t>
-  </si>
-  <si>
-    <t>10,9%</t>
-  </si>
-  <si>
-    <t>23,05%</t>
-  </si>
-  <si>
-    <t>17,19%</t>
-  </si>
-  <si>
-    <t>13,35%</t>
-  </si>
-  <si>
-    <t>21,19%</t>
-  </si>
-  <si>
-    <t>14,0%</t>
-  </si>
-  <si>
-    <t>9,77%</t>
-  </si>
-  <si>
-    <t>19,2%</t>
-  </si>
-  <si>
-    <t>16,8%</t>
-  </si>
-  <si>
-    <t>11,52%</t>
-  </si>
-  <si>
-    <t>23,77%</t>
-  </si>
-  <si>
-    <t>15,06%</t>
-  </si>
-  <si>
-    <t>11,61%</t>
-  </si>
-  <si>
-    <t>19,03%</t>
-  </si>
-  <si>
-    <t>19,77%</t>
-  </si>
-  <si>
-    <t>15,03%</t>
-  </si>
-  <si>
-    <t>25,32%</t>
-  </si>
-  <si>
-    <t>26,01%</t>
-  </si>
-  <si>
-    <t>18,54%</t>
-  </si>
-  <si>
-    <t>33,62%</t>
-  </si>
-  <si>
-    <t>22,13%</t>
-  </si>
-  <si>
-    <t>17,78%</t>
-  </si>
-  <si>
-    <t>26,72%</t>
-  </si>
-  <si>
-    <t>Huelva</t>
-  </si>
-  <si>
-    <t>63,91%</t>
-  </si>
-  <si>
-    <t>53,99%</t>
-  </si>
-  <si>
-    <t>72,95%</t>
-  </si>
-  <si>
-    <t>61,97%</t>
-  </si>
-  <si>
-    <t>48,46%</t>
-  </si>
-  <si>
-    <t>75,38%</t>
-  </si>
-  <si>
-    <t>63,31%</t>
-  </si>
-  <si>
-    <t>56,05%</t>
-  </si>
-  <si>
-    <t>70,5%</t>
-  </si>
-  <si>
-    <t>8,65%</t>
-  </si>
-  <si>
-    <t>4,16%</t>
-  </si>
-  <si>
-    <t>15,39%</t>
-  </si>
-  <si>
-    <t>4,0%</t>
-  </si>
-  <si>
-    <t>0,0%</t>
-  </si>
-  <si>
-    <t>13,82%</t>
-  </si>
-  <si>
-    <t>7,2%</t>
-  </si>
-  <si>
-    <t>3,64%</t>
-  </si>
-  <si>
-    <t>12,17%</t>
-  </si>
-  <si>
-    <t>7,52%</t>
-  </si>
-  <si>
-    <t>3,13%</t>
-  </si>
-  <si>
-    <t>14,8%</t>
-  </si>
-  <si>
-    <t>14,07%</t>
-  </si>
-  <si>
-    <t>6,1%</t>
-  </si>
-  <si>
-    <t>26,77%</t>
-  </si>
-  <si>
-    <t>9,55%</t>
-  </si>
-  <si>
-    <t>5,61%</t>
-  </si>
-  <si>
-    <t>15,2%</t>
-  </si>
-  <si>
-    <t>19,93%</t>
-  </si>
-  <si>
-    <t>13,18%</t>
-  </si>
-  <si>
-    <t>28,5%</t>
-  </si>
-  <si>
-    <t>19,96%</t>
-  </si>
-  <si>
-    <t>9,54%</t>
-  </si>
-  <si>
-    <t>31,89%</t>
-  </si>
-  <si>
-    <t>19,94%</t>
-  </si>
-  <si>
-    <t>13,97%</t>
-  </si>
-  <si>
-    <t>26,59%</t>
-  </si>
-  <si>
-    <t>Jaen</t>
-  </si>
-  <si>
-    <t>47,82%</t>
-  </si>
-  <si>
-    <t>39,89%</t>
-  </si>
-  <si>
-    <t>56,45%</t>
-  </si>
-  <si>
-    <t>25,45%</t>
-  </si>
-  <si>
-    <t>16,74%</t>
-  </si>
-  <si>
-    <t>36,73%</t>
-  </si>
-  <si>
-    <t>40,06%</t>
-  </si>
-  <si>
-    <t>34,2%</t>
-  </si>
-  <si>
-    <t>46,97%</t>
-  </si>
-  <si>
-    <t>21,44%</t>
-  </si>
-  <si>
-    <t>15,33%</t>
-  </si>
-  <si>
-    <t>28,81%</t>
-  </si>
-  <si>
-    <t>23,72%</t>
-  </si>
-  <si>
-    <t>15,25%</t>
-  </si>
-  <si>
-    <t>33,73%</t>
-  </si>
-  <si>
-    <t>22,23%</t>
-  </si>
-  <si>
-    <t>17,03%</t>
-  </si>
-  <si>
-    <t>28,04%</t>
-  </si>
-  <si>
-    <t>14,24%</t>
-  </si>
-  <si>
-    <t>9,64%</t>
-  </si>
-  <si>
-    <t>21,35%</t>
-  </si>
-  <si>
-    <t>17,77%</t>
-  </si>
-  <si>
-    <t>10,32%</t>
-  </si>
-  <si>
-    <t>27,31%</t>
-  </si>
-  <si>
-    <t>15,46%</t>
-  </si>
-  <si>
-    <t>10,84%</t>
-  </si>
-  <si>
-    <t>19,89%</t>
-  </si>
-  <si>
-    <t>16,49%</t>
-  </si>
-  <si>
-    <t>11,34%</t>
-  </si>
-  <si>
-    <t>23,18%</t>
-  </si>
-  <si>
-    <t>33,07%</t>
-  </si>
-  <si>
-    <t>44,55%</t>
-  </si>
-  <si>
-    <t>22,24%</t>
-  </si>
-  <si>
-    <t>17,07%</t>
-  </si>
-  <si>
-    <t>28,2%</t>
-  </si>
-  <si>
-    <t>Malaga</t>
-  </si>
-  <si>
-    <t>61,99%</t>
-  </si>
-  <si>
-    <t>56,41%</t>
-  </si>
-  <si>
-    <t>67,09%</t>
-  </si>
-  <si>
-    <t>49,78%</t>
-  </si>
-  <si>
-    <t>40,7%</t>
-  </si>
-  <si>
-    <t>56,89%</t>
-  </si>
-  <si>
-    <t>57,73%</t>
-  </si>
-  <si>
-    <t>53,26%</t>
-  </si>
-  <si>
-    <t>62,03%</t>
-  </si>
-  <si>
-    <t>11,4%</t>
-  </si>
-  <si>
-    <t>8,08%</t>
+    <t>11,17%</t>
   </si>
   <si>
     <t>15,27%</t>
   </si>
   <si>
-    <t>17,3%</t>
-  </si>
-  <si>
-    <t>12,22%</t>
-  </si>
-  <si>
-    <t>24,01%</t>
-  </si>
-  <si>
-    <t>13,46%</t>
-  </si>
-  <si>
-    <t>10,61%</t>
-  </si>
-  <si>
-    <t>16,76%</t>
-  </si>
-  <si>
-    <t>10,07%</t>
-  </si>
-  <si>
-    <t>7,15%</t>
-  </si>
-  <si>
-    <t>13,59%</t>
-  </si>
-  <si>
-    <t>14,1%</t>
-  </si>
-  <si>
-    <t>9,45%</t>
-  </si>
-  <si>
-    <t>11,48%</t>
-  </si>
-  <si>
-    <t>8,86%</t>
-  </si>
-  <si>
-    <t>14,83%</t>
-  </si>
-  <si>
-    <t>16,53%</t>
-  </si>
-  <si>
-    <t>12,63%</t>
-  </si>
-  <si>
-    <t>21,01%</t>
-  </si>
-  <si>
-    <t>18,82%</t>
-  </si>
-  <si>
-    <t>13,88%</t>
-  </si>
-  <si>
-    <t>25,25%</t>
-  </si>
-  <si>
-    <t>17,33%</t>
-  </si>
-  <si>
-    <t>14,05%</t>
-  </si>
-  <si>
-    <t>20,95%</t>
-  </si>
-  <si>
-    <t>Sevilla</t>
-  </si>
-  <si>
-    <t>65,85%</t>
-  </si>
-  <si>
-    <t>61,44%</t>
-  </si>
-  <si>
-    <t>69,83%</t>
-  </si>
-  <si>
-    <t>55,89%</t>
-  </si>
-  <si>
-    <t>48,91%</t>
-  </si>
-  <si>
-    <t>62,05%</t>
-  </si>
-  <si>
-    <t>62,47%</t>
-  </si>
-  <si>
-    <t>58,78%</t>
-  </si>
-  <si>
-    <t>66,3%</t>
-  </si>
-  <si>
-    <t>8,32%</t>
-  </si>
-  <si>
-    <t>6,04%</t>
-  </si>
-  <si>
-    <t>11,11%</t>
-  </si>
-  <si>
-    <t>11,3%</t>
-  </si>
-  <si>
-    <t>7,91%</t>
-  </si>
-  <si>
-    <t>16,3%</t>
-  </si>
-  <si>
-    <t>9,33%</t>
-  </si>
-  <si>
-    <t>7,46%</t>
-  </si>
-  <si>
-    <t>11,82%</t>
-  </si>
-  <si>
-    <t>8,49%</t>
-  </si>
-  <si>
-    <t>6,32%</t>
-  </si>
-  <si>
-    <t>11,24%</t>
-  </si>
-  <si>
-    <t>11,81%</t>
-  </si>
-  <si>
-    <t>7,98%</t>
-  </si>
-  <si>
-    <t>16,28%</t>
-  </si>
-  <si>
-    <t>9,62%</t>
-  </si>
-  <si>
-    <t>7,35%</t>
-  </si>
-  <si>
-    <t>21,46%</t>
-  </si>
-  <si>
-    <t>21,0%</t>
-  </si>
-  <si>
-    <t>15,99%</t>
-  </si>
-  <si>
-    <t>26,86%</t>
-  </si>
-  <si>
-    <t>18,58%</t>
-  </si>
-  <si>
-    <t>15,63%</t>
-  </si>
-  <si>
-    <t>21,79%</t>
-  </si>
-  <si>
-    <t>56,78%</t>
-  </si>
-  <si>
-    <t>54,52%</t>
-  </si>
-  <si>
-    <t>59,21%</t>
-  </si>
-  <si>
-    <t>46,9%</t>
-  </si>
-  <si>
-    <t>43,75%</t>
-  </si>
-  <si>
-    <t>49,8%</t>
-  </si>
-  <si>
-    <t>53,32%</t>
-  </si>
-  <si>
-    <t>51,48%</t>
-  </si>
-  <si>
-    <t>55,05%</t>
-  </si>
-  <si>
-    <t>13,53%</t>
-  </si>
-  <si>
-    <t>11,99%</t>
-  </si>
-  <si>
-    <t>15,1%</t>
-  </si>
-  <si>
-    <t>15,56%</t>
-  </si>
-  <si>
-    <t>13,3%</t>
-  </si>
-  <si>
-    <t>18,0%</t>
-  </si>
-  <si>
-    <t>13,0%</t>
-  </si>
-  <si>
-    <t>10,99%</t>
-  </si>
-  <si>
-    <t>14,08%</t>
-  </si>
-  <si>
-    <t>13,17%</t>
-  </si>
-  <si>
-    <t>17,57%</t>
-  </si>
-  <si>
-    <t>12,2%</t>
-  </si>
-  <si>
-    <t>14,84%</t>
-  </si>
-  <si>
-    <t>17,1%</t>
-  </si>
-  <si>
-    <t>18,99%</t>
+    <t>12,96%</t>
+  </si>
+  <si>
+    <t>17,64%</t>
+  </si>
+  <si>
+    <t>12,35%</t>
+  </si>
+  <si>
+    <t>14,92%</t>
+  </si>
+  <si>
+    <t>18,83%</t>
   </si>
   <si>
     <t>22,27%</t>
   </si>
   <si>
-    <t>19,72%</t>
-  </si>
-  <si>
-    <t>25,21%</t>
+    <t>19,81%</t>
+  </si>
+  <si>
+    <t>25,17%</t>
   </si>
   <si>
     <t>18,91%</t>
   </si>
   <si>
-    <t>17,41%</t>
-  </si>
-  <si>
-    <t>20,3%</t>
+    <t>17,53%</t>
+  </si>
+  <si>
+    <t>20,36%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
@@ -1446,7 +1443,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{90361F08-0CC7-44C3-8E8F-C77ED461D6FE}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FA46D310-B4A5-441B-9B62-33D5750393DF}">
   <dimension ref="A1:Q49"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1965,7 +1962,7 @@
         <v>76</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>77</v>
+        <v>37</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -1980,13 +1977,13 @@
         <v>46967</v>
       </c>
       <c r="E12" s="7" t="s">
+        <v>77</v>
+      </c>
+      <c r="F12" s="7" t="s">
         <v>78</v>
       </c>
-      <c r="F12" s="7" t="s">
+      <c r="G12" s="7" t="s">
         <v>79</v>
-      </c>
-      <c r="G12" s="7" t="s">
-        <v>80</v>
       </c>
       <c r="H12" s="7">
         <v>29</v>
@@ -1995,13 +1992,13 @@
         <v>28415</v>
       </c>
       <c r="J12" s="7" t="s">
+        <v>80</v>
+      </c>
+      <c r="K12" s="7" t="s">
         <v>81</v>
       </c>
-      <c r="K12" s="7" t="s">
+      <c r="L12" s="7" t="s">
         <v>82</v>
-      </c>
-      <c r="L12" s="7" t="s">
-        <v>83</v>
       </c>
       <c r="M12" s="7">
         <v>70</v>
@@ -2010,13 +2007,13 @@
         <v>75382</v>
       </c>
       <c r="O12" s="7" t="s">
+        <v>83</v>
+      </c>
+      <c r="P12" s="7" t="s">
         <v>84</v>
       </c>
-      <c r="P12" s="7" t="s">
+      <c r="Q12" s="7" t="s">
         <v>85</v>
-      </c>
-      <c r="Q12" s="7" t="s">
-        <v>86</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -2072,7 +2069,7 @@
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B14" s="5" t="s">
         <v>10</v>
@@ -2084,13 +2081,13 @@
         <v>98606</v>
       </c>
       <c r="E14" s="7" t="s">
+        <v>87</v>
+      </c>
+      <c r="F14" s="7" t="s">
         <v>88</v>
       </c>
-      <c r="F14" s="7" t="s">
+      <c r="G14" s="7" t="s">
         <v>89</v>
-      </c>
-      <c r="G14" s="7" t="s">
-        <v>90</v>
       </c>
       <c r="H14" s="7">
         <v>52</v>
@@ -2099,13 +2096,13 @@
         <v>52609</v>
       </c>
       <c r="J14" s="7" t="s">
+        <v>90</v>
+      </c>
+      <c r="K14" s="7" t="s">
         <v>91</v>
       </c>
-      <c r="K14" s="7" t="s">
+      <c r="L14" s="7" t="s">
         <v>92</v>
-      </c>
-      <c r="L14" s="7" t="s">
-        <v>93</v>
       </c>
       <c r="M14" s="7">
         <v>146</v>
@@ -2114,13 +2111,13 @@
         <v>151215</v>
       </c>
       <c r="O14" s="7" t="s">
+        <v>93</v>
+      </c>
+      <c r="P14" s="7" t="s">
         <v>94</v>
       </c>
-      <c r="P14" s="7" t="s">
+      <c r="Q14" s="7" t="s">
         <v>95</v>
-      </c>
-      <c r="Q14" s="7" t="s">
-        <v>96</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -2135,13 +2132,13 @@
         <v>29504</v>
       </c>
       <c r="E15" s="7" t="s">
+        <v>96</v>
+      </c>
+      <c r="F15" s="7" t="s">
         <v>97</v>
       </c>
-      <c r="F15" s="7" t="s">
+      <c r="G15" s="7" t="s">
         <v>98</v>
-      </c>
-      <c r="G15" s="7" t="s">
-        <v>99</v>
       </c>
       <c r="H15" s="7">
         <v>15</v>
@@ -2150,13 +2147,13 @@
         <v>14844</v>
       </c>
       <c r="J15" s="7" t="s">
+        <v>99</v>
+      </c>
+      <c r="K15" s="7" t="s">
         <v>100</v>
       </c>
-      <c r="K15" s="7" t="s">
+      <c r="L15" s="7" t="s">
         <v>101</v>
-      </c>
-      <c r="L15" s="7" t="s">
-        <v>102</v>
       </c>
       <c r="M15" s="7">
         <v>42</v>
@@ -2165,13 +2162,13 @@
         <v>44348</v>
       </c>
       <c r="O15" s="7" t="s">
+        <v>102</v>
+      </c>
+      <c r="P15" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q15" s="7" t="s">
         <v>103</v>
-      </c>
-      <c r="P15" s="7" t="s">
-        <v>104</v>
-      </c>
-      <c r="Q15" s="7" t="s">
-        <v>105</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
@@ -2186,13 +2183,13 @@
         <v>26276</v>
       </c>
       <c r="E16" s="7" t="s">
+        <v>104</v>
+      </c>
+      <c r="F16" s="7" t="s">
+        <v>105</v>
+      </c>
+      <c r="G16" s="7" t="s">
         <v>106</v>
-      </c>
-      <c r="F16" s="7" t="s">
-        <v>107</v>
-      </c>
-      <c r="G16" s="7" t="s">
-        <v>108</v>
       </c>
       <c r="H16" s="7">
         <v>15</v>
@@ -2201,13 +2198,13 @@
         <v>15218</v>
       </c>
       <c r="J16" s="7" t="s">
+        <v>107</v>
+      </c>
+      <c r="K16" s="7" t="s">
+        <v>108</v>
+      </c>
+      <c r="L16" s="7" t="s">
         <v>109</v>
-      </c>
-      <c r="K16" s="7" t="s">
-        <v>110</v>
-      </c>
-      <c r="L16" s="7" t="s">
-        <v>111</v>
       </c>
       <c r="M16" s="7">
         <v>41</v>
@@ -2216,13 +2213,13 @@
         <v>41494</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -2237,13 +2234,13 @@
         <v>21317</v>
       </c>
       <c r="E17" s="7" t="s">
+        <v>112</v>
+      </c>
+      <c r="F17" s="7" t="s">
+        <v>113</v>
+      </c>
+      <c r="G17" s="7" t="s">
         <v>114</v>
-      </c>
-      <c r="F17" s="7" t="s">
-        <v>115</v>
-      </c>
-      <c r="G17" s="7" t="s">
-        <v>116</v>
       </c>
       <c r="H17" s="7">
         <v>12</v>
@@ -2252,13 +2249,13 @@
         <v>11895</v>
       </c>
       <c r="J17" s="7" t="s">
+        <v>115</v>
+      </c>
+      <c r="K17" s="7" t="s">
+        <v>116</v>
+      </c>
+      <c r="L17" s="7" t="s">
         <v>117</v>
-      </c>
-      <c r="K17" s="7" t="s">
-        <v>118</v>
-      </c>
-      <c r="L17" s="7" t="s">
-        <v>119</v>
       </c>
       <c r="M17" s="7">
         <v>32</v>
@@ -2267,13 +2264,13 @@
         <v>33213</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>35</v>
+        <v>118</v>
       </c>
       <c r="P17" s="7" t="s">
+        <v>119</v>
+      </c>
+      <c r="Q17" s="7" t="s">
         <v>120</v>
-      </c>
-      <c r="Q17" s="7" t="s">
-        <v>121</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -2329,7 +2326,7 @@
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="B19" s="5" t="s">
         <v>10</v>
@@ -2341,13 +2338,13 @@
         <v>108755</v>
       </c>
       <c r="E19" s="7" t="s">
+        <v>122</v>
+      </c>
+      <c r="F19" s="7" t="s">
         <v>123</v>
       </c>
-      <c r="F19" s="7" t="s">
+      <c r="G19" s="7" t="s">
         <v>124</v>
-      </c>
-      <c r="G19" s="7" t="s">
-        <v>125</v>
       </c>
       <c r="H19" s="7">
         <v>55</v>
@@ -2356,13 +2353,13 @@
         <v>55306</v>
       </c>
       <c r="J19" s="7" t="s">
+        <v>125</v>
+      </c>
+      <c r="K19" s="7" t="s">
         <v>126</v>
       </c>
-      <c r="K19" s="7" t="s">
+      <c r="L19" s="7" t="s">
         <v>127</v>
-      </c>
-      <c r="L19" s="7" t="s">
-        <v>128</v>
       </c>
       <c r="M19" s="7">
         <v>162</v>
@@ -2371,13 +2368,13 @@
         <v>164061</v>
       </c>
       <c r="O19" s="7" t="s">
+        <v>128</v>
+      </c>
+      <c r="P19" s="7" t="s">
         <v>129</v>
       </c>
-      <c r="P19" s="7" t="s">
+      <c r="Q19" s="7" t="s">
         <v>130</v>
-      </c>
-      <c r="Q19" s="7" t="s">
-        <v>131</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -2392,13 +2389,13 @@
         <v>39291</v>
       </c>
       <c r="E20" s="7" t="s">
+        <v>131</v>
+      </c>
+      <c r="F20" s="7" t="s">
         <v>132</v>
       </c>
-      <c r="F20" s="7" t="s">
+      <c r="G20" s="7" t="s">
         <v>133</v>
-      </c>
-      <c r="G20" s="7" t="s">
-        <v>134</v>
       </c>
       <c r="H20" s="7">
         <v>23</v>
@@ -2407,13 +2404,13 @@
         <v>22524</v>
       </c>
       <c r="J20" s="7" t="s">
+        <v>134</v>
+      </c>
+      <c r="K20" s="7" t="s">
         <v>135</v>
       </c>
-      <c r="K20" s="7" t="s">
+      <c r="L20" s="7" t="s">
         <v>136</v>
-      </c>
-      <c r="L20" s="7" t="s">
-        <v>137</v>
       </c>
       <c r="M20" s="7">
         <v>62</v>
@@ -2422,13 +2419,13 @@
         <v>61815</v>
       </c>
       <c r="O20" s="7" t="s">
+        <v>137</v>
+      </c>
+      <c r="P20" s="7" t="s">
         <v>138</v>
       </c>
-      <c r="P20" s="7" t="s">
+      <c r="Q20" s="7" t="s">
         <v>139</v>
-      </c>
-      <c r="Q20" s="7" t="s">
-        <v>140</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -2443,13 +2440,13 @@
         <v>31304</v>
       </c>
       <c r="E21" s="7" t="s">
+        <v>140</v>
+      </c>
+      <c r="F21" s="7" t="s">
         <v>141</v>
       </c>
-      <c r="F21" s="7" t="s">
+      <c r="G21" s="7" t="s">
         <v>142</v>
-      </c>
-      <c r="G21" s="7" t="s">
-        <v>143</v>
       </c>
       <c r="H21" s="7">
         <v>23</v>
@@ -2458,13 +2455,13 @@
         <v>22863</v>
       </c>
       <c r="J21" s="7" t="s">
+        <v>143</v>
+      </c>
+      <c r="K21" s="7" t="s">
         <v>144</v>
       </c>
-      <c r="K21" s="7" t="s">
+      <c r="L21" s="7" t="s">
         <v>145</v>
-      </c>
-      <c r="L21" s="7" t="s">
-        <v>146</v>
       </c>
       <c r="M21" s="7">
         <v>53</v>
@@ -2473,13 +2470,13 @@
         <v>54167</v>
       </c>
       <c r="O21" s="7" t="s">
+        <v>146</v>
+      </c>
+      <c r="P21" s="7" t="s">
         <v>147</v>
       </c>
-      <c r="P21" s="7" t="s">
+      <c r="Q21" s="7" t="s">
         <v>148</v>
-      </c>
-      <c r="Q21" s="7" t="s">
-        <v>149</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -2494,13 +2491,13 @@
         <v>44194</v>
       </c>
       <c r="E22" s="7" t="s">
+        <v>149</v>
+      </c>
+      <c r="F22" s="7" t="s">
         <v>150</v>
       </c>
-      <c r="F22" s="7" t="s">
+      <c r="G22" s="7" t="s">
         <v>151</v>
-      </c>
-      <c r="G22" s="7" t="s">
-        <v>152</v>
       </c>
       <c r="H22" s="7">
         <v>36</v>
@@ -2509,13 +2506,13 @@
         <v>35392</v>
       </c>
       <c r="J22" s="7" t="s">
+        <v>152</v>
+      </c>
+      <c r="K22" s="7" t="s">
         <v>153</v>
       </c>
-      <c r="K22" s="7" t="s">
+      <c r="L22" s="7" t="s">
         <v>154</v>
-      </c>
-      <c r="L22" s="7" t="s">
-        <v>155</v>
       </c>
       <c r="M22" s="7">
         <v>79</v>
@@ -2524,13 +2521,13 @@
         <v>79586</v>
       </c>
       <c r="O22" s="7" t="s">
+        <v>155</v>
+      </c>
+      <c r="P22" s="7" t="s">
         <v>156</v>
       </c>
-      <c r="P22" s="7" t="s">
+      <c r="Q22" s="7" t="s">
         <v>157</v>
-      </c>
-      <c r="Q22" s="7" t="s">
-        <v>158</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -2586,7 +2583,7 @@
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A24" s="1" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="B24" s="5" t="s">
         <v>10</v>
@@ -2598,13 +2595,13 @@
         <v>71688</v>
       </c>
       <c r="E24" s="7" t="s">
+        <v>159</v>
+      </c>
+      <c r="F24" s="7" t="s">
         <v>160</v>
       </c>
-      <c r="F24" s="7" t="s">
+      <c r="G24" s="7" t="s">
         <v>161</v>
-      </c>
-      <c r="G24" s="7" t="s">
-        <v>162</v>
       </c>
       <c r="H24" s="7">
         <v>28</v>
@@ -2613,13 +2610,13 @@
         <v>31251</v>
       </c>
       <c r="J24" s="7" t="s">
+        <v>162</v>
+      </c>
+      <c r="K24" s="7" t="s">
         <v>163</v>
       </c>
-      <c r="K24" s="7" t="s">
+      <c r="L24" s="7" t="s">
         <v>164</v>
-      </c>
-      <c r="L24" s="7" t="s">
-        <v>165</v>
       </c>
       <c r="M24" s="7">
         <v>99</v>
@@ -2628,13 +2625,13 @@
         <v>102939</v>
       </c>
       <c r="O24" s="7" t="s">
+        <v>165</v>
+      </c>
+      <c r="P24" s="7" t="s">
         <v>166</v>
       </c>
-      <c r="P24" s="7" t="s">
+      <c r="Q24" s="7" t="s">
         <v>167</v>
-      </c>
-      <c r="Q24" s="7" t="s">
-        <v>168</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -2649,13 +2646,13 @@
         <v>9698</v>
       </c>
       <c r="E25" s="7" t="s">
+        <v>168</v>
+      </c>
+      <c r="F25" s="7" t="s">
         <v>169</v>
       </c>
-      <c r="F25" s="7" t="s">
+      <c r="G25" s="7" t="s">
         <v>170</v>
-      </c>
-      <c r="G25" s="7" t="s">
-        <v>171</v>
       </c>
       <c r="H25" s="7">
         <v>2</v>
@@ -2664,13 +2661,13 @@
         <v>2015</v>
       </c>
       <c r="J25" s="7" t="s">
+        <v>171</v>
+      </c>
+      <c r="K25" s="7" t="s">
         <v>172</v>
       </c>
-      <c r="K25" s="7" t="s">
+      <c r="L25" s="7" t="s">
         <v>173</v>
-      </c>
-      <c r="L25" s="7" t="s">
-        <v>174</v>
       </c>
       <c r="M25" s="7">
         <v>12</v>
@@ -2679,13 +2676,13 @@
         <v>11713</v>
       </c>
       <c r="O25" s="7" t="s">
+        <v>174</v>
+      </c>
+      <c r="P25" s="7" t="s">
         <v>175</v>
       </c>
-      <c r="P25" s="7" t="s">
+      <c r="Q25" s="7" t="s">
         <v>176</v>
-      </c>
-      <c r="Q25" s="7" t="s">
-        <v>177</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -2700,13 +2697,13 @@
         <v>8436</v>
       </c>
       <c r="E26" s="7" t="s">
+        <v>177</v>
+      </c>
+      <c r="F26" s="7" t="s">
         <v>178</v>
       </c>
-      <c r="F26" s="7" t="s">
+      <c r="G26" s="7" t="s">
         <v>179</v>
-      </c>
-      <c r="G26" s="7" t="s">
-        <v>180</v>
       </c>
       <c r="H26" s="7">
         <v>7</v>
@@ -2715,13 +2712,13 @@
         <v>7093</v>
       </c>
       <c r="J26" s="7" t="s">
+        <v>180</v>
+      </c>
+      <c r="K26" s="7" t="s">
         <v>181</v>
       </c>
-      <c r="K26" s="7" t="s">
+      <c r="L26" s="7" t="s">
         <v>182</v>
-      </c>
-      <c r="L26" s="7" t="s">
-        <v>183</v>
       </c>
       <c r="M26" s="7">
         <v>14</v>
@@ -2730,13 +2727,13 @@
         <v>15529</v>
       </c>
       <c r="O26" s="7" t="s">
+        <v>183</v>
+      </c>
+      <c r="P26" s="7" t="s">
         <v>184</v>
       </c>
-      <c r="P26" s="7" t="s">
+      <c r="Q26" s="7" t="s">
         <v>185</v>
-      </c>
-      <c r="Q26" s="7" t="s">
-        <v>186</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -2751,13 +2748,13 @@
         <v>22355</v>
       </c>
       <c r="E27" s="7" t="s">
+        <v>186</v>
+      </c>
+      <c r="F27" s="7" t="s">
         <v>187</v>
       </c>
-      <c r="F27" s="7" t="s">
+      <c r="G27" s="7" t="s">
         <v>188</v>
-      </c>
-      <c r="G27" s="7" t="s">
-        <v>189</v>
       </c>
       <c r="H27" s="7">
         <v>10</v>
@@ -2766,13 +2763,13 @@
         <v>10067</v>
       </c>
       <c r="J27" s="7" t="s">
+        <v>189</v>
+      </c>
+      <c r="K27" s="7" t="s">
         <v>190</v>
       </c>
-      <c r="K27" s="7" t="s">
+      <c r="L27" s="7" t="s">
         <v>191</v>
-      </c>
-      <c r="L27" s="7" t="s">
-        <v>192</v>
       </c>
       <c r="M27" s="7">
         <v>32</v>
@@ -2781,13 +2778,13 @@
         <v>32422</v>
       </c>
       <c r="O27" s="7" t="s">
+        <v>192</v>
+      </c>
+      <c r="P27" s="7" t="s">
         <v>193</v>
       </c>
-      <c r="P27" s="7" t="s">
+      <c r="Q27" s="7" t="s">
         <v>194</v>
-      </c>
-      <c r="Q27" s="7" t="s">
-        <v>195</v>
       </c>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
@@ -2843,7 +2840,7 @@
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A29" s="1" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="B29" s="5" t="s">
         <v>10</v>
@@ -2855,13 +2852,13 @@
         <v>74612</v>
       </c>
       <c r="E29" s="7" t="s">
+        <v>196</v>
+      </c>
+      <c r="F29" s="7" t="s">
         <v>197</v>
       </c>
-      <c r="F29" s="7" t="s">
+      <c r="G29" s="7" t="s">
         <v>198</v>
-      </c>
-      <c r="G29" s="7" t="s">
-        <v>199</v>
       </c>
       <c r="H29" s="7">
         <v>21</v>
@@ -2870,13 +2867,13 @@
         <v>21074</v>
       </c>
       <c r="J29" s="7" t="s">
+        <v>199</v>
+      </c>
+      <c r="K29" s="7" t="s">
         <v>200</v>
       </c>
-      <c r="K29" s="7" t="s">
+      <c r="L29" s="7" t="s">
         <v>201</v>
-      </c>
-      <c r="L29" s="7" t="s">
-        <v>202</v>
       </c>
       <c r="M29" s="7">
         <v>92</v>
@@ -2885,13 +2882,13 @@
         <v>95687</v>
       </c>
       <c r="O29" s="7" t="s">
+        <v>202</v>
+      </c>
+      <c r="P29" s="7" t="s">
         <v>203</v>
       </c>
-      <c r="P29" s="7" t="s">
+      <c r="Q29" s="7" t="s">
         <v>204</v>
-      </c>
-      <c r="Q29" s="7" t="s">
-        <v>205</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -2906,13 +2903,13 @@
         <v>33454</v>
       </c>
       <c r="E30" s="7" t="s">
+        <v>205</v>
+      </c>
+      <c r="F30" s="7" t="s">
         <v>206</v>
       </c>
-      <c r="F30" s="7" t="s">
+      <c r="G30" s="7" t="s">
         <v>207</v>
-      </c>
-      <c r="G30" s="7" t="s">
-        <v>208</v>
       </c>
       <c r="H30" s="7">
         <v>19</v>
@@ -2921,13 +2918,13 @@
         <v>19643</v>
       </c>
       <c r="J30" s="7" t="s">
+        <v>208</v>
+      </c>
+      <c r="K30" s="7" t="s">
         <v>209</v>
       </c>
-      <c r="K30" s="7" t="s">
+      <c r="L30" s="7" t="s">
         <v>210</v>
-      </c>
-      <c r="L30" s="7" t="s">
-        <v>211</v>
       </c>
       <c r="M30" s="7">
         <v>51</v>
@@ -2936,13 +2933,13 @@
         <v>53097</v>
       </c>
       <c r="O30" s="7" t="s">
+        <v>211</v>
+      </c>
+      <c r="P30" s="7" t="s">
         <v>212</v>
       </c>
-      <c r="P30" s="7" t="s">
+      <c r="Q30" s="7" t="s">
         <v>213</v>
-      </c>
-      <c r="Q30" s="7" t="s">
-        <v>214</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -2957,13 +2954,13 @@
         <v>22221</v>
       </c>
       <c r="E31" s="7" t="s">
+        <v>214</v>
+      </c>
+      <c r="F31" s="7" t="s">
         <v>215</v>
       </c>
-      <c r="F31" s="7" t="s">
+      <c r="G31" s="7" t="s">
         <v>216</v>
-      </c>
-      <c r="G31" s="7" t="s">
-        <v>217</v>
       </c>
       <c r="H31" s="7">
         <v>14</v>
@@ -2972,13 +2969,13 @@
         <v>14713</v>
       </c>
       <c r="J31" s="7" t="s">
+        <v>217</v>
+      </c>
+      <c r="K31" s="7" t="s">
         <v>218</v>
       </c>
-      <c r="K31" s="7" t="s">
+      <c r="L31" s="7" t="s">
         <v>219</v>
-      </c>
-      <c r="L31" s="7" t="s">
-        <v>220</v>
       </c>
       <c r="M31" s="7">
         <v>35</v>
@@ -2987,13 +2984,13 @@
         <v>36933</v>
       </c>
       <c r="O31" s="7" t="s">
+        <v>220</v>
+      </c>
+      <c r="P31" s="7" t="s">
         <v>221</v>
       </c>
-      <c r="P31" s="7" t="s">
+      <c r="Q31" s="7" t="s">
         <v>222</v>
-      </c>
-      <c r="Q31" s="7" t="s">
-        <v>223</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
@@ -3008,13 +3005,13 @@
         <v>25730</v>
       </c>
       <c r="E32" s="7" t="s">
+        <v>223</v>
+      </c>
+      <c r="F32" s="7" t="s">
         <v>224</v>
       </c>
-      <c r="F32" s="7" t="s">
+      <c r="G32" s="7" t="s">
         <v>225</v>
-      </c>
-      <c r="G32" s="7" t="s">
-        <v>226</v>
       </c>
       <c r="H32" s="7">
         <v>26</v>
@@ -3023,10 +3020,10 @@
         <v>27387</v>
       </c>
       <c r="J32" s="7" t="s">
+        <v>226</v>
+      </c>
+      <c r="K32" s="7" t="s">
         <v>227</v>
-      </c>
-      <c r="K32" s="7" t="s">
-        <v>86</v>
       </c>
       <c r="L32" s="7" t="s">
         <v>228</v>
@@ -3127,13 +3124,13 @@
         <v>89876</v>
       </c>
       <c r="J34" s="7" t="s">
+        <v>94</v>
+      </c>
+      <c r="K34" s="7" t="s">
         <v>236</v>
       </c>
-      <c r="K34" s="7" t="s">
+      <c r="L34" s="7" t="s">
         <v>237</v>
-      </c>
-      <c r="L34" s="7" t="s">
-        <v>238</v>
       </c>
       <c r="M34" s="7">
         <v>278</v>
@@ -3142,13 +3139,13 @@
         <v>298647</v>
       </c>
       <c r="O34" s="7" t="s">
+        <v>238</v>
+      </c>
+      <c r="P34" s="7" t="s">
         <v>239</v>
       </c>
-      <c r="P34" s="7" t="s">
+      <c r="Q34" s="7" t="s">
         <v>240</v>
-      </c>
-      <c r="Q34" s="7" t="s">
-        <v>241</v>
       </c>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.3">
@@ -3163,13 +3160,13 @@
         <v>38404</v>
       </c>
       <c r="E35" s="7" t="s">
+        <v>241</v>
+      </c>
+      <c r="F35" s="7" t="s">
         <v>242</v>
       </c>
-      <c r="F35" s="7" t="s">
+      <c r="G35" s="7" t="s">
         <v>243</v>
-      </c>
-      <c r="G35" s="7" t="s">
-        <v>244</v>
       </c>
       <c r="H35" s="7">
         <v>29</v>
@@ -3178,13 +3175,13 @@
         <v>31228</v>
       </c>
       <c r="J35" s="7" t="s">
+        <v>244</v>
+      </c>
+      <c r="K35" s="7" t="s">
         <v>245</v>
       </c>
-      <c r="K35" s="7" t="s">
+      <c r="L35" s="7" t="s">
         <v>246</v>
-      </c>
-      <c r="L35" s="7" t="s">
-        <v>247</v>
       </c>
       <c r="M35" s="7">
         <v>64</v>
@@ -3193,13 +3190,13 @@
         <v>69632</v>
       </c>
       <c r="O35" s="7" t="s">
+        <v>138</v>
+      </c>
+      <c r="P35" s="7" t="s">
+        <v>247</v>
+      </c>
+      <c r="Q35" s="7" t="s">
         <v>248</v>
-      </c>
-      <c r="P35" s="7" t="s">
-        <v>249</v>
-      </c>
-      <c r="Q35" s="7" t="s">
-        <v>250</v>
       </c>
     </row>
     <row r="36" spans="1:17" x14ac:dyDescent="0.3">
@@ -3214,13 +3211,13 @@
         <v>33919</v>
       </c>
       <c r="E36" s="7" t="s">
+        <v>249</v>
+      </c>
+      <c r="F36" s="7" t="s">
+        <v>250</v>
+      </c>
+      <c r="G36" s="7" t="s">
         <v>251</v>
-      </c>
-      <c r="F36" s="7" t="s">
-        <v>252</v>
-      </c>
-      <c r="G36" s="7" t="s">
-        <v>253</v>
       </c>
       <c r="H36" s="7">
         <v>24</v>
@@ -3229,13 +3226,13 @@
         <v>25457</v>
       </c>
       <c r="J36" s="7" t="s">
+        <v>252</v>
+      </c>
+      <c r="K36" s="7" t="s">
+        <v>253</v>
+      </c>
+      <c r="L36" s="7" t="s">
         <v>254</v>
-      </c>
-      <c r="K36" s="7" t="s">
-        <v>255</v>
-      </c>
-      <c r="L36" s="7" t="s">
-        <v>119</v>
       </c>
       <c r="M36" s="7">
         <v>57</v>
@@ -3244,13 +3241,13 @@
         <v>59376</v>
       </c>
       <c r="O36" s="7" t="s">
+        <v>255</v>
+      </c>
+      <c r="P36" s="7" t="s">
         <v>256</v>
       </c>
-      <c r="P36" s="7" t="s">
+      <c r="Q36" s="7" t="s">
         <v>257</v>
-      </c>
-      <c r="Q36" s="7" t="s">
-        <v>258</v>
       </c>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.3">
@@ -3265,13 +3262,13 @@
         <v>55668</v>
       </c>
       <c r="E37" s="7" t="s">
+        <v>258</v>
+      </c>
+      <c r="F37" s="7" t="s">
+        <v>118</v>
+      </c>
+      <c r="G37" s="7" t="s">
         <v>259</v>
-      </c>
-      <c r="F37" s="7" t="s">
-        <v>260</v>
-      </c>
-      <c r="G37" s="7" t="s">
-        <v>261</v>
       </c>
       <c r="H37" s="7">
         <v>34</v>
@@ -3280,13 +3277,13 @@
         <v>33986</v>
       </c>
       <c r="J37" s="7" t="s">
+        <v>260</v>
+      </c>
+      <c r="K37" s="7" t="s">
+        <v>261</v>
+      </c>
+      <c r="L37" s="7" t="s">
         <v>262</v>
-      </c>
-      <c r="K37" s="7" t="s">
-        <v>263</v>
-      </c>
-      <c r="L37" s="7" t="s">
-        <v>264</v>
       </c>
       <c r="M37" s="7">
         <v>87</v>
@@ -3295,13 +3292,13 @@
         <v>89654</v>
       </c>
       <c r="O37" s="7" t="s">
+        <v>263</v>
+      </c>
+      <c r="P37" s="7" t="s">
+        <v>264</v>
+      </c>
+      <c r="Q37" s="7" t="s">
         <v>265</v>
-      </c>
-      <c r="P37" s="7" t="s">
-        <v>266</v>
-      </c>
-      <c r="Q37" s="7" t="s">
-        <v>267</v>
       </c>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.3">
@@ -3357,7 +3354,7 @@
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A39" s="1" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="B39" s="5" t="s">
         <v>10</v>
@@ -3369,13 +3366,13 @@
         <v>305736</v>
       </c>
       <c r="E39" s="7" t="s">
+        <v>267</v>
+      </c>
+      <c r="F39" s="7" t="s">
+        <v>268</v>
+      </c>
+      <c r="G39" s="7" t="s">
         <v>269</v>
-      </c>
-      <c r="F39" s="7" t="s">
-        <v>270</v>
-      </c>
-      <c r="G39" s="7" t="s">
-        <v>271</v>
       </c>
       <c r="H39" s="7">
         <v>125</v>
@@ -3384,13 +3381,13 @@
         <v>133557</v>
       </c>
       <c r="J39" s="7" t="s">
+        <v>270</v>
+      </c>
+      <c r="K39" s="7" t="s">
+        <v>271</v>
+      </c>
+      <c r="L39" s="7" t="s">
         <v>272</v>
-      </c>
-      <c r="K39" s="7" t="s">
-        <v>273</v>
-      </c>
-      <c r="L39" s="7" t="s">
-        <v>274</v>
       </c>
       <c r="M39" s="7">
         <v>420</v>
@@ -3399,13 +3396,13 @@
         <v>439293</v>
       </c>
       <c r="O39" s="7" t="s">
+        <v>273</v>
+      </c>
+      <c r="P39" s="7" t="s">
+        <v>274</v>
+      </c>
+      <c r="Q39" s="7" t="s">
         <v>275</v>
-      </c>
-      <c r="P39" s="7" t="s">
-        <v>276</v>
-      </c>
-      <c r="Q39" s="7" t="s">
-        <v>277</v>
       </c>
     </row>
     <row r="40" spans="1:17" x14ac:dyDescent="0.3">
@@ -3420,13 +3417,13 @@
         <v>38640</v>
       </c>
       <c r="E40" s="7" t="s">
+        <v>276</v>
+      </c>
+      <c r="F40" s="7" t="s">
+        <v>277</v>
+      </c>
+      <c r="G40" s="7" t="s">
         <v>278</v>
-      </c>
-      <c r="F40" s="7" t="s">
-        <v>279</v>
-      </c>
-      <c r="G40" s="7" t="s">
-        <v>280</v>
       </c>
       <c r="H40" s="7">
         <v>26</v>
@@ -3435,13 +3432,13 @@
         <v>27004</v>
       </c>
       <c r="J40" s="7" t="s">
+        <v>279</v>
+      </c>
+      <c r="K40" s="7" t="s">
+        <v>280</v>
+      </c>
+      <c r="L40" s="7" t="s">
         <v>281</v>
-      </c>
-      <c r="K40" s="7" t="s">
-        <v>282</v>
-      </c>
-      <c r="L40" s="7" t="s">
-        <v>283</v>
       </c>
       <c r="M40" s="7">
         <v>67</v>
@@ -3450,13 +3447,13 @@
         <v>65644</v>
       </c>
       <c r="O40" s="7" t="s">
+        <v>282</v>
+      </c>
+      <c r="P40" s="7" t="s">
+        <v>283</v>
+      </c>
+      <c r="Q40" s="7" t="s">
         <v>284</v>
-      </c>
-      <c r="P40" s="7" t="s">
-        <v>285</v>
-      </c>
-      <c r="Q40" s="7" t="s">
-        <v>286</v>
       </c>
     </row>
     <row r="41" spans="1:17" x14ac:dyDescent="0.3">
@@ -3471,13 +3468,13 @@
         <v>39439</v>
       </c>
       <c r="E41" s="7" t="s">
+        <v>285</v>
+      </c>
+      <c r="F41" s="7" t="s">
+        <v>286</v>
+      </c>
+      <c r="G41" s="7" t="s">
         <v>287</v>
-      </c>
-      <c r="F41" s="7" t="s">
-        <v>288</v>
-      </c>
-      <c r="G41" s="7" t="s">
-        <v>289</v>
       </c>
       <c r="H41" s="7">
         <v>28</v>
@@ -3486,13 +3483,13 @@
         <v>28224</v>
       </c>
       <c r="J41" s="7" t="s">
+        <v>288</v>
+      </c>
+      <c r="K41" s="7" t="s">
+        <v>289</v>
+      </c>
+      <c r="L41" s="7" t="s">
         <v>290</v>
-      </c>
-      <c r="K41" s="7" t="s">
-        <v>291</v>
-      </c>
-      <c r="L41" s="7" t="s">
-        <v>292</v>
       </c>
       <c r="M41" s="7">
         <v>68</v>
@@ -3501,13 +3498,13 @@
         <v>67663</v>
       </c>
       <c r="O41" s="7" t="s">
+        <v>291</v>
+      </c>
+      <c r="P41" s="7" t="s">
+        <v>292</v>
+      </c>
+      <c r="Q41" s="7" t="s">
         <v>293</v>
-      </c>
-      <c r="P41" s="7" t="s">
-        <v>294</v>
-      </c>
-      <c r="Q41" s="7" t="s">
-        <v>290</v>
       </c>
     </row>
     <row r="42" spans="1:17" x14ac:dyDescent="0.3">
@@ -3522,10 +3519,10 @@
         <v>80460</v>
       </c>
       <c r="E42" s="7" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="F42" s="7" t="s">
-        <v>141</v>
+        <v>294</v>
       </c>
       <c r="G42" s="7" t="s">
         <v>295</v>
@@ -3555,10 +3552,10 @@
         <v>299</v>
       </c>
       <c r="P42" s="7" t="s">
+        <v>70</v>
+      </c>
+      <c r="Q42" s="7" t="s">
         <v>300</v>
-      </c>
-      <c r="Q42" s="7" t="s">
-        <v>301</v>
       </c>
     </row>
     <row r="43" spans="1:17" x14ac:dyDescent="0.3">
@@ -3626,13 +3623,13 @@
         <v>1081280</v>
       </c>
       <c r="E44" s="7" t="s">
+        <v>301</v>
+      </c>
+      <c r="F44" s="7" t="s">
         <v>302</v>
       </c>
-      <c r="F44" s="7" t="s">
+      <c r="G44" s="7" t="s">
         <v>303</v>
-      </c>
-      <c r="G44" s="7" t="s">
-        <v>304</v>
       </c>
       <c r="H44" s="7">
         <v>454</v>
@@ -3641,13 +3638,13 @@
         <v>481298</v>
       </c>
       <c r="J44" s="7" t="s">
+        <v>304</v>
+      </c>
+      <c r="K44" s="7" t="s">
+        <v>228</v>
+      </c>
+      <c r="L44" s="7" t="s">
         <v>305</v>
-      </c>
-      <c r="K44" s="7" t="s">
-        <v>306</v>
-      </c>
-      <c r="L44" s="7" t="s">
-        <v>307</v>
       </c>
       <c r="M44" s="7">
         <v>1490</v>
@@ -3656,13 +3653,13 @@
         <v>1562579</v>
       </c>
       <c r="O44" s="7" t="s">
+        <v>306</v>
+      </c>
+      <c r="P44" s="7" t="s">
+        <v>307</v>
+      </c>
+      <c r="Q44" s="7" t="s">
         <v>308</v>
-      </c>
-      <c r="P44" s="7" t="s">
-        <v>309</v>
-      </c>
-      <c r="Q44" s="7" t="s">
-        <v>310</v>
       </c>
     </row>
     <row r="45" spans="1:17" x14ac:dyDescent="0.3">
@@ -3677,13 +3674,13 @@
         <v>257670</v>
       </c>
       <c r="E45" s="7" t="s">
+        <v>309</v>
+      </c>
+      <c r="F45" s="7" t="s">
+        <v>310</v>
+      </c>
+      <c r="G45" s="7" t="s">
         <v>311</v>
-      </c>
-      <c r="F45" s="7" t="s">
-        <v>312</v>
-      </c>
-      <c r="G45" s="7" t="s">
-        <v>313</v>
       </c>
       <c r="H45" s="7">
         <v>152</v>
@@ -3692,13 +3689,13 @@
         <v>159662</v>
       </c>
       <c r="J45" s="7" t="s">
+        <v>312</v>
+      </c>
+      <c r="K45" s="7" t="s">
+        <v>313</v>
+      </c>
+      <c r="L45" s="7" t="s">
         <v>314</v>
-      </c>
-      <c r="K45" s="7" t="s">
-        <v>315</v>
-      </c>
-      <c r="L45" s="7" t="s">
-        <v>316</v>
       </c>
       <c r="M45" s="7">
         <v>401</v>
@@ -3707,13 +3704,13 @@
         <v>417332</v>
       </c>
       <c r="O45" s="7" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="P45" s="7" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="Q45" s="7" t="s">
-        <v>70</v>
+        <v>316</v>
       </c>
     </row>
     <row r="46" spans="1:17" x14ac:dyDescent="0.3">
@@ -3728,13 +3725,13 @@
         <v>239683</v>
       </c>
       <c r="E46" s="7" t="s">
-        <v>28</v>
+        <v>317</v>
       </c>
       <c r="F46" s="7" t="s">
         <v>318</v>
       </c>
       <c r="G46" s="7" t="s">
-        <v>319</v>
+        <v>214</v>
       </c>
       <c r="H46" s="7">
         <v>152</v>
@@ -3743,7 +3740,7 @@
         <v>156701</v>
       </c>
       <c r="J46" s="7" t="s">
-        <v>244</v>
+        <v>319</v>
       </c>
       <c r="K46" s="7" t="s">
         <v>320</v>
@@ -3758,7 +3755,7 @@
         <v>396384</v>
       </c>
       <c r="O46" s="7" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="P46" s="7" t="s">
         <v>322</v>
@@ -3779,13 +3776,13 @@
         <v>325725</v>
       </c>
       <c r="E47" s="7" t="s">
+        <v>120</v>
+      </c>
+      <c r="F47" s="7" t="s">
+        <v>312</v>
+      </c>
+      <c r="G47" s="7" t="s">
         <v>324</v>
-      </c>
-      <c r="F47" s="7" t="s">
-        <v>85</v>
-      </c>
-      <c r="G47" s="7" t="s">
-        <v>325</v>
       </c>
       <c r="H47" s="7">
         <v>224</v>
@@ -3794,13 +3791,13 @@
         <v>228576</v>
       </c>
       <c r="J47" s="7" t="s">
+        <v>325</v>
+      </c>
+      <c r="K47" s="7" t="s">
         <v>326</v>
       </c>
-      <c r="K47" s="7" t="s">
+      <c r="L47" s="7" t="s">
         <v>327</v>
-      </c>
-      <c r="L47" s="7" t="s">
-        <v>328</v>
       </c>
       <c r="M47" s="7">
         <v>533</v>
@@ -3809,13 +3806,13 @@
         <v>554301</v>
       </c>
       <c r="O47" s="7" t="s">
+        <v>328</v>
+      </c>
+      <c r="P47" s="7" t="s">
         <v>329</v>
       </c>
-      <c r="P47" s="7" t="s">
+      <c r="Q47" s="7" t="s">
         <v>330</v>
-      </c>
-      <c r="Q47" s="7" t="s">
-        <v>331</v>
       </c>
     </row>
     <row r="48" spans="1:17" x14ac:dyDescent="0.3">
@@ -3827,7 +3824,7 @@
         <v>1824</v>
       </c>
       <c r="D48" s="7">
-        <v>1904359</v>
+        <v>1904358</v>
       </c>
       <c r="E48" s="7" t="s">
         <v>50</v>
@@ -3871,7 +3868,7 @@
     </row>
     <row r="49" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/P6512-Provincia-trans_orig.xlsx
+++ b/data/trans_orig/P6512-Provincia-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{8C4B8970-547F-491F-BB2A-5D70B5917BF3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{DDD1DBF3-CE69-41B9-97B6-CC034CD38501}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{44258AEE-46E7-44F0-A1B5-7E4EA4DD5A88}"/>
+    <workbookView xWindow="2580" yWindow="2580" windowWidth="17280" windowHeight="8880" xr2:uid="{DEB0B5DA-8C89-4DA5-92F8-C5CFC11F4745}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -1443,7 +1443,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FA46D310-B4A5-441B-9B62-33D5750393DF}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{143CFC8C-71FB-4256-B494-838BE437F470}">
   <dimension ref="A1:Q49"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -3824,7 +3824,7 @@
         <v>1824</v>
       </c>
       <c r="D48" s="7">
-        <v>1904358</v>
+        <v>1904359</v>
       </c>
       <c r="E48" s="7" t="s">
         <v>50</v>
